--- a/database/industries/siman/seshargh/product/monthly_seprated.xlsx
+++ b/database/industries/siman/seshargh/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\seshargh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07EAF0-8D0A-4B10-B8DD-EF698C7E3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDFFD62-DF1F-44D3-AADB-42A1E215A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 2 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1507,86 +1507,86 @@
       <c r="AA11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
+      <c r="AB11" s="11">
+        <v>165203</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>148460</v>
       </c>
       <c r="AD11" s="11">
-        <v>165203</v>
+        <v>127240</v>
       </c>
       <c r="AE11" s="11">
-        <v>148460</v>
+        <v>131094</v>
       </c>
       <c r="AF11" s="11">
-        <v>127240</v>
+        <v>102957</v>
       </c>
       <c r="AG11" s="11">
-        <v>131094</v>
+        <v>170779</v>
       </c>
       <c r="AH11" s="11">
-        <v>102957</v>
+        <v>128789</v>
       </c>
       <c r="AI11" s="11">
-        <v>170779</v>
+        <v>156144</v>
       </c>
       <c r="AJ11" s="11">
-        <v>128789</v>
+        <v>175539</v>
       </c>
       <c r="AK11" s="11">
-        <v>156144</v>
+        <v>120030</v>
       </c>
       <c r="AL11" s="11">
-        <v>175539</v>
+        <v>84260</v>
       </c>
       <c r="AM11" s="11">
-        <v>120030</v>
+        <v>162740</v>
       </c>
       <c r="AN11" s="11">
-        <v>84260</v>
+        <v>149549</v>
       </c>
       <c r="AO11" s="11">
-        <v>162740</v>
+        <v>141959</v>
       </c>
       <c r="AP11" s="11">
-        <v>149549</v>
+        <v>119514</v>
       </c>
       <c r="AQ11" s="11">
-        <v>141959</v>
+        <v>97342</v>
       </c>
       <c r="AR11" s="11">
-        <v>119514</v>
+        <v>86630</v>
       </c>
       <c r="AS11" s="11">
-        <v>97342</v>
+        <v>115248</v>
       </c>
       <c r="AT11" s="11">
-        <v>86630</v>
+        <v>87850</v>
       </c>
       <c r="AU11" s="11">
-        <v>115248</v>
+        <v>110088</v>
       </c>
       <c r="AV11" s="11">
-        <v>87850</v>
+        <v>110163</v>
       </c>
       <c r="AW11" s="11">
-        <v>110088</v>
+        <v>139888</v>
       </c>
       <c r="AX11" s="11">
-        <v>110163</v>
+        <v>139500</v>
       </c>
       <c r="AY11" s="11">
-        <v>139888</v>
+        <v>163852</v>
       </c>
       <c r="AZ11" s="11">
-        <v>139500</v>
+        <v>150786</v>
       </c>
       <c r="BA11" s="11">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="BB11" s="11">
-        <v>150786</v>
+        <v>143543</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1666,86 +1666,86 @@
       <c r="AA12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
+      <c r="AB12" s="13">
+        <v>12944</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>12497</v>
       </c>
       <c r="AD12" s="13">
-        <v>12944</v>
+        <v>12192</v>
       </c>
       <c r="AE12" s="13">
-        <v>12497</v>
+        <v>2433</v>
       </c>
       <c r="AF12" s="13">
-        <v>12192</v>
+        <v>9578</v>
       </c>
       <c r="AG12" s="13">
-        <v>2433</v>
+        <v>10765</v>
       </c>
       <c r="AH12" s="13">
-        <v>9578</v>
+        <v>12106</v>
       </c>
       <c r="AI12" s="13">
-        <v>10765</v>
+        <v>13057</v>
       </c>
       <c r="AJ12" s="13">
-        <v>12106</v>
+        <v>11399</v>
       </c>
       <c r="AK12" s="13">
-        <v>13057</v>
+        <v>11191</v>
       </c>
       <c r="AL12" s="13">
-        <v>11399</v>
+        <v>10594</v>
       </c>
       <c r="AM12" s="13">
-        <v>11191</v>
+        <v>11318</v>
       </c>
       <c r="AN12" s="13">
-        <v>10594</v>
+        <v>11101</v>
       </c>
       <c r="AO12" s="13">
-        <v>11318</v>
+        <v>12308</v>
       </c>
       <c r="AP12" s="13">
-        <v>11101</v>
+        <v>11677</v>
       </c>
       <c r="AQ12" s="13">
-        <v>12308</v>
+        <v>7107</v>
       </c>
       <c r="AR12" s="13">
-        <v>11677</v>
+        <v>4267</v>
       </c>
       <c r="AS12" s="13">
-        <v>7107</v>
+        <v>4700</v>
       </c>
       <c r="AT12" s="13">
-        <v>4267</v>
+        <v>11870</v>
       </c>
       <c r="AU12" s="13">
-        <v>4700</v>
+        <v>11533</v>
       </c>
       <c r="AV12" s="13">
-        <v>11870</v>
+        <v>11027</v>
       </c>
       <c r="AW12" s="13">
-        <v>11533</v>
+        <v>7322</v>
       </c>
       <c r="AX12" s="13">
-        <v>11027</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>7322</v>
+        <v>7191</v>
+      </c>
+      <c r="AY12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ12" s="13">
-        <v>7191</v>
-      </c>
-      <c r="BA12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1824,85 +1824,85 @@
         <v>0</v>
       </c>
       <c r="AB13" s="15">
-        <v>0</v>
+        <v>178147</v>
       </c>
       <c r="AC13" s="15">
-        <v>0</v>
+        <v>160957</v>
       </c>
       <c r="AD13" s="15">
-        <v>178147</v>
+        <v>139432</v>
       </c>
       <c r="AE13" s="15">
-        <v>160957</v>
+        <v>133527</v>
       </c>
       <c r="AF13" s="15">
-        <v>139432</v>
+        <v>112535</v>
       </c>
       <c r="AG13" s="15">
-        <v>133527</v>
+        <v>181544</v>
       </c>
       <c r="AH13" s="15">
-        <v>112535</v>
+        <v>140895</v>
       </c>
       <c r="AI13" s="15">
-        <v>181544</v>
+        <v>169201</v>
       </c>
       <c r="AJ13" s="15">
-        <v>140895</v>
+        <v>186938</v>
       </c>
       <c r="AK13" s="15">
-        <v>169201</v>
+        <v>131221</v>
       </c>
       <c r="AL13" s="15">
-        <v>186938</v>
+        <v>94854</v>
       </c>
       <c r="AM13" s="15">
-        <v>131221</v>
+        <v>174058</v>
       </c>
       <c r="AN13" s="15">
-        <v>94854</v>
+        <v>160650</v>
       </c>
       <c r="AO13" s="15">
-        <v>174058</v>
+        <v>154267</v>
       </c>
       <c r="AP13" s="15">
-        <v>160650</v>
+        <v>131191</v>
       </c>
       <c r="AQ13" s="15">
-        <v>154267</v>
+        <v>104449</v>
       </c>
       <c r="AR13" s="15">
-        <v>131191</v>
+        <v>90897</v>
       </c>
       <c r="AS13" s="15">
-        <v>104449</v>
+        <v>119948</v>
       </c>
       <c r="AT13" s="15">
-        <v>90897</v>
+        <v>99720</v>
       </c>
       <c r="AU13" s="15">
-        <v>119948</v>
+        <v>121621</v>
       </c>
       <c r="AV13" s="15">
-        <v>99720</v>
+        <v>121190</v>
       </c>
       <c r="AW13" s="15">
-        <v>121621</v>
+        <v>147210</v>
       </c>
       <c r="AX13" s="15">
-        <v>121190</v>
+        <v>146691</v>
       </c>
       <c r="AY13" s="15">
-        <v>147210</v>
+        <v>163852</v>
       </c>
       <c r="AZ13" s="15">
-        <v>146691</v>
+        <v>150786</v>
       </c>
       <c r="BA13" s="15">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="BB13" s="15">
-        <v>150786</v>
+        <v>143543</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2078,35 +2078,35 @@
       <c r="AN15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>58</v>
+      <c r="AO15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>0</v>
       </c>
       <c r="AY15" s="11">
         <v>0</v>
@@ -2198,11 +2198,11 @@
       <c r="AA16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>58</v>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
         <v>0</v>
@@ -2219,11 +2219,11 @@
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK16" s="13" t="s">
         <v>58</v>
@@ -2357,11 +2357,11 @@
       <c r="AA17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>58</v>
+      <c r="AB17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>0</v>
       </c>
       <c r="AD17" s="11">
         <v>0</v>
@@ -2378,11 +2378,11 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>58</v>
@@ -2516,11 +2516,11 @@
       <c r="AA18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>58</v>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
       </c>
       <c r="AD18" s="13">
         <v>0</v>
@@ -2537,11 +2537,11 @@
       <c r="AH18" s="13">
         <v>0</v>
       </c>
-      <c r="AI18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>58</v>
@@ -2697,14 +2697,14 @@
       <c r="AI19" s="15">
         <v>0</v>
       </c>
-      <c r="AJ19" s="15">
-        <v>0</v>
+      <c r="AJ19" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="15">
         <v>0</v>
       </c>
-      <c r="AL19" s="15" t="s">
-        <v>58</v>
+      <c r="AL19" s="15">
+        <v>0</v>
       </c>
       <c r="AM19" s="15">
         <v>0</v>
@@ -2792,11 +2792,11 @@
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
+      <c r="AJ20" s="17">
+        <v>0</v>
+      </c>
       <c r="AK20" s="17"/>
-      <c r="AL20" s="17">
-        <v>0</v>
-      </c>
+      <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
@@ -2889,11 +2889,11 @@
       <c r="AA21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC21" s="15" t="s">
-        <v>58</v>
+      <c r="AB21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>0</v>
       </c>
       <c r="AD21" s="15">
         <v>0</v>
@@ -2913,13 +2913,13 @@
       <c r="AI21" s="15">
         <v>0</v>
       </c>
-      <c r="AJ21" s="15">
-        <v>0</v>
-      </c>
+      <c r="AJ21" s="15"/>
       <c r="AK21" s="15">
         <v>0</v>
       </c>
-      <c r="AL21" s="15"/>
+      <c r="AL21" s="15">
+        <v>0</v>
+      </c>
       <c r="AM21" s="15">
         <v>0</v>
       </c>
@@ -3045,85 +3045,85 @@
         <v>0</v>
       </c>
       <c r="AB22" s="19">
-        <v>0</v>
+        <v>178147</v>
       </c>
       <c r="AC22" s="19">
-        <v>0</v>
+        <v>160957</v>
       </c>
       <c r="AD22" s="19">
-        <v>178147</v>
+        <v>139432</v>
       </c>
       <c r="AE22" s="19">
-        <v>160957</v>
+        <v>133527</v>
       </c>
       <c r="AF22" s="19">
-        <v>139432</v>
+        <v>112535</v>
       </c>
       <c r="AG22" s="19">
-        <v>133527</v>
+        <v>181544</v>
       </c>
       <c r="AH22" s="19">
-        <v>112535</v>
+        <v>140895</v>
       </c>
       <c r="AI22" s="19">
-        <v>181544</v>
+        <v>169201</v>
       </c>
       <c r="AJ22" s="19">
-        <v>140895</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="19">
-        <v>169201</v>
+        <v>131221</v>
       </c>
       <c r="AL22" s="19">
-        <v>0</v>
+        <v>94854</v>
       </c>
       <c r="AM22" s="19">
-        <v>131221</v>
+        <v>174058</v>
       </c>
       <c r="AN22" s="19">
-        <v>94854</v>
+        <v>160650</v>
       </c>
       <c r="AO22" s="19">
-        <v>174058</v>
+        <v>154267</v>
       </c>
       <c r="AP22" s="19">
-        <v>160650</v>
+        <v>131191</v>
       </c>
       <c r="AQ22" s="19">
-        <v>154267</v>
+        <v>104449</v>
       </c>
       <c r="AR22" s="19">
-        <v>131191</v>
+        <v>90897</v>
       </c>
       <c r="AS22" s="19">
-        <v>104449</v>
+        <v>119948</v>
       </c>
       <c r="AT22" s="19">
-        <v>90897</v>
+        <v>99720</v>
       </c>
       <c r="AU22" s="19">
-        <v>119948</v>
+        <v>121621</v>
       </c>
       <c r="AV22" s="19">
-        <v>99720</v>
+        <v>121190</v>
       </c>
       <c r="AW22" s="19">
-        <v>121621</v>
+        <v>147210</v>
       </c>
       <c r="AX22" s="19">
-        <v>121190</v>
+        <v>146691</v>
       </c>
       <c r="AY22" s="19">
-        <v>147210</v>
+        <v>163852</v>
       </c>
       <c r="AZ22" s="19">
-        <v>146691</v>
+        <v>150786</v>
       </c>
       <c r="BA22" s="19">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="BB22" s="19">
-        <v>150786</v>
+        <v>143543</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3696,86 +3696,86 @@
       <c r="AA30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC30" s="11" t="s">
-        <v>58</v>
+      <c r="AB30" s="11">
+        <v>131144</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>120910</v>
       </c>
       <c r="AD30" s="11">
-        <v>131144</v>
+        <v>84455</v>
       </c>
       <c r="AE30" s="11">
-        <v>120910</v>
+        <v>84450</v>
       </c>
       <c r="AF30" s="11">
-        <v>84455</v>
+        <v>83707</v>
       </c>
       <c r="AG30" s="11">
-        <v>84450</v>
+        <v>123616</v>
       </c>
       <c r="AH30" s="11">
-        <v>83707</v>
+        <v>95970</v>
       </c>
       <c r="AI30" s="11">
-        <v>123616</v>
+        <v>131250</v>
       </c>
       <c r="AJ30" s="11">
-        <v>95970</v>
+        <v>142101</v>
       </c>
       <c r="AK30" s="11">
-        <v>131250</v>
+        <v>85577</v>
       </c>
       <c r="AL30" s="11">
-        <v>142101</v>
+        <v>66495</v>
       </c>
       <c r="AM30" s="11">
-        <v>85577</v>
+        <v>139567</v>
       </c>
       <c r="AN30" s="11">
-        <v>66495</v>
+        <v>124596</v>
       </c>
       <c r="AO30" s="11">
-        <v>139567</v>
+        <v>124634</v>
       </c>
       <c r="AP30" s="11">
-        <v>124596</v>
+        <v>112128</v>
       </c>
       <c r="AQ30" s="11">
-        <v>124634</v>
+        <v>89678</v>
       </c>
       <c r="AR30" s="11">
-        <v>112128</v>
+        <v>79095</v>
       </c>
       <c r="AS30" s="11">
-        <v>89678</v>
+        <v>104683</v>
       </c>
       <c r="AT30" s="11">
-        <v>79095</v>
+        <v>77830</v>
       </c>
       <c r="AU30" s="11">
-        <v>104683</v>
+        <v>107562</v>
       </c>
       <c r="AV30" s="11">
-        <v>77830</v>
+        <v>107015</v>
       </c>
       <c r="AW30" s="11">
-        <v>107562</v>
+        <v>112858</v>
       </c>
       <c r="AX30" s="11">
-        <v>107015</v>
+        <v>127857</v>
       </c>
       <c r="AY30" s="11">
-        <v>112858</v>
+        <v>134852</v>
       </c>
       <c r="AZ30" s="11">
-        <v>127857</v>
+        <v>120031</v>
       </c>
       <c r="BA30" s="11">
-        <v>134852</v>
+        <v>135825</v>
       </c>
       <c r="BB30" s="11">
-        <v>120031</v>
+        <v>135348</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3855,86 +3855,86 @@
       <c r="AA31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>58</v>
+      <c r="AB31" s="13">
+        <v>13042</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>13195</v>
       </c>
       <c r="AD31" s="13">
-        <v>13042</v>
+        <v>11960</v>
       </c>
       <c r="AE31" s="13">
-        <v>13195</v>
+        <v>3764</v>
       </c>
       <c r="AF31" s="13">
-        <v>11960</v>
+        <v>10082</v>
       </c>
       <c r="AG31" s="13">
-        <v>3764</v>
+        <v>11114</v>
       </c>
       <c r="AH31" s="13">
-        <v>10082</v>
+        <v>12138</v>
       </c>
       <c r="AI31" s="13">
-        <v>11114</v>
+        <v>12011</v>
       </c>
       <c r="AJ31" s="13">
-        <v>12138</v>
+        <v>12122</v>
       </c>
       <c r="AK31" s="13">
-        <v>12011</v>
+        <v>9034</v>
       </c>
       <c r="AL31" s="13">
-        <v>12122</v>
+        <v>5877</v>
       </c>
       <c r="AM31" s="13">
-        <v>9034</v>
+        <v>8857</v>
       </c>
       <c r="AN31" s="13">
-        <v>5877</v>
+        <v>17555</v>
       </c>
       <c r="AO31" s="13">
-        <v>8857</v>
+        <v>15775</v>
       </c>
       <c r="AP31" s="13">
-        <v>17555</v>
+        <v>9340</v>
       </c>
       <c r="AQ31" s="13">
-        <v>15775</v>
+        <v>5074</v>
       </c>
       <c r="AR31" s="13">
-        <v>9340</v>
+        <v>6061</v>
       </c>
       <c r="AS31" s="13">
-        <v>5074</v>
+        <v>8435</v>
       </c>
       <c r="AT31" s="13">
-        <v>6061</v>
+        <v>11889</v>
       </c>
       <c r="AU31" s="13">
-        <v>8435</v>
+        <v>12114</v>
       </c>
       <c r="AV31" s="13">
-        <v>11889</v>
+        <v>8086</v>
       </c>
       <c r="AW31" s="13">
-        <v>12114</v>
+        <v>7774</v>
       </c>
       <c r="AX31" s="13">
-        <v>8086</v>
-      </c>
-      <c r="AY31" s="13">
-        <v>7774</v>
+        <v>9173</v>
+      </c>
+      <c r="AY31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ31" s="13">
-        <v>9173</v>
-      </c>
-      <c r="BA31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB31" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA31" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4013,85 +4013,85 @@
         <v>0</v>
       </c>
       <c r="AB32" s="15">
-        <v>0</v>
+        <v>144186</v>
       </c>
       <c r="AC32" s="15">
-        <v>0</v>
+        <v>134105</v>
       </c>
       <c r="AD32" s="15">
-        <v>144186</v>
+        <v>96415</v>
       </c>
       <c r="AE32" s="15">
-        <v>134105</v>
+        <v>88214</v>
       </c>
       <c r="AF32" s="15">
-        <v>96415</v>
+        <v>93789</v>
       </c>
       <c r="AG32" s="15">
-        <v>88214</v>
+        <v>134730</v>
       </c>
       <c r="AH32" s="15">
-        <v>93789</v>
+        <v>108108</v>
       </c>
       <c r="AI32" s="15">
-        <v>134730</v>
+        <v>143261</v>
       </c>
       <c r="AJ32" s="15">
-        <v>108108</v>
+        <v>154223</v>
       </c>
       <c r="AK32" s="15">
-        <v>143261</v>
+        <v>94611</v>
       </c>
       <c r="AL32" s="15">
-        <v>154223</v>
+        <v>72372</v>
       </c>
       <c r="AM32" s="15">
-        <v>94611</v>
+        <v>148424</v>
       </c>
       <c r="AN32" s="15">
-        <v>72372</v>
+        <v>142151</v>
       </c>
       <c r="AO32" s="15">
-        <v>148424</v>
+        <v>140409</v>
       </c>
       <c r="AP32" s="15">
-        <v>142151</v>
+        <v>121468</v>
       </c>
       <c r="AQ32" s="15">
-        <v>140409</v>
+        <v>94752</v>
       </c>
       <c r="AR32" s="15">
-        <v>121468</v>
+        <v>85156</v>
       </c>
       <c r="AS32" s="15">
-        <v>94752</v>
+        <v>113118</v>
       </c>
       <c r="AT32" s="15">
-        <v>85156</v>
+        <v>89719</v>
       </c>
       <c r="AU32" s="15">
-        <v>113118</v>
+        <v>119676</v>
       </c>
       <c r="AV32" s="15">
-        <v>89719</v>
+        <v>115101</v>
       </c>
       <c r="AW32" s="15">
-        <v>119676</v>
+        <v>120632</v>
       </c>
       <c r="AX32" s="15">
-        <v>115101</v>
+        <v>137030</v>
       </c>
       <c r="AY32" s="15">
-        <v>120632</v>
+        <v>134852</v>
       </c>
       <c r="AZ32" s="15">
-        <v>137030</v>
+        <v>120031</v>
       </c>
       <c r="BA32" s="15">
-        <v>134852</v>
+        <v>135825</v>
       </c>
       <c r="BB32" s="15">
-        <v>120031</v>
+        <v>135348</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4264,50 +4264,50 @@
       <c r="AM34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>58</v>
+      <c r="AN34" s="11">
+        <v>13091</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>4917</v>
       </c>
       <c r="AP34" s="11">
-        <v>13091</v>
+        <v>13271</v>
       </c>
       <c r="AQ34" s="11">
-        <v>4917</v>
+        <v>5861</v>
       </c>
       <c r="AR34" s="11">
-        <v>13271</v>
+        <v>6729</v>
       </c>
       <c r="AS34" s="11">
-        <v>5861</v>
+        <v>19714</v>
       </c>
       <c r="AT34" s="11">
-        <v>6729</v>
+        <v>16071</v>
       </c>
       <c r="AU34" s="11">
-        <v>19714</v>
+        <v>5185</v>
       </c>
       <c r="AV34" s="11">
-        <v>16071</v>
+        <v>7655</v>
       </c>
       <c r="AW34" s="11">
-        <v>5185</v>
+        <v>17070</v>
       </c>
       <c r="AX34" s="11">
-        <v>7655</v>
+        <v>16449</v>
       </c>
       <c r="AY34" s="11">
-        <v>17070</v>
+        <v>18339</v>
       </c>
       <c r="AZ34" s="11">
-        <v>16449</v>
+        <v>27607</v>
       </c>
       <c r="BA34" s="11">
-        <v>18339</v>
+        <v>22747</v>
       </c>
       <c r="BB34" s="11">
-        <v>27607</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4387,11 +4387,11 @@
       <c r="AA35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC35" s="13" t="s">
-        <v>58</v>
+      <c r="AB35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>0</v>
       </c>
       <c r="AD35" s="13">
         <v>0</v>
@@ -4408,11 +4408,11 @@
       <c r="AH35" s="13">
         <v>0</v>
       </c>
-      <c r="AI35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>0</v>
+      <c r="AI35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK35" s="13" t="s">
         <v>58</v>
@@ -4546,11 +4546,11 @@
       <c r="AA36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>58</v>
+      <c r="AB36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>0</v>
       </c>
       <c r="AD36" s="11">
         <v>0</v>
@@ -4567,11 +4567,11 @@
       <c r="AH36" s="11">
         <v>0</v>
       </c>
-      <c r="AI36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>0</v>
+      <c r="AI36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK36" s="11" t="s">
         <v>58</v>
@@ -4705,47 +4705,47 @@
       <c r="AA37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>58</v>
+      <c r="AB37" s="13">
+        <v>24924</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>18877</v>
       </c>
       <c r="AD37" s="13">
-        <v>24924</v>
+        <v>53638</v>
       </c>
       <c r="AE37" s="13">
-        <v>18877</v>
+        <v>32853</v>
       </c>
       <c r="AF37" s="13">
-        <v>53638</v>
+        <v>27396</v>
       </c>
       <c r="AG37" s="13">
-        <v>32853</v>
+        <v>35335</v>
       </c>
       <c r="AH37" s="13">
-        <v>27396</v>
+        <v>45928</v>
       </c>
       <c r="AI37" s="13">
-        <v>35335</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>45928</v>
+        <v>21544</v>
+      </c>
+      <c r="AJ37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="13">
-        <v>21544</v>
-      </c>
-      <c r="AL37" s="13" t="s">
-        <v>58</v>
+        <v>21711</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>23938</v>
       </c>
       <c r="AM37" s="13">
-        <v>21711</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>23938</v>
-      </c>
-      <c r="AO37" s="13">
         <v>20628</v>
+      </c>
+      <c r="AN37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP37" s="13" t="s">
         <v>58</v>
@@ -4863,85 +4863,85 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <v>0</v>
+        <v>24924</v>
       </c>
       <c r="AC38" s="15">
-        <v>0</v>
+        <v>18877</v>
       </c>
       <c r="AD38" s="15">
-        <v>24924</v>
+        <v>53638</v>
       </c>
       <c r="AE38" s="15">
-        <v>18877</v>
+        <v>32853</v>
       </c>
       <c r="AF38" s="15">
-        <v>53638</v>
+        <v>27396</v>
       </c>
       <c r="AG38" s="15">
-        <v>32853</v>
+        <v>35335</v>
       </c>
       <c r="AH38" s="15">
-        <v>27396</v>
+        <v>45928</v>
       </c>
       <c r="AI38" s="15">
-        <v>35335</v>
+        <v>21544</v>
       </c>
       <c r="AJ38" s="15">
-        <v>45928</v>
+        <v>34453</v>
       </c>
       <c r="AK38" s="15">
-        <v>21544</v>
+        <v>21711</v>
       </c>
       <c r="AL38" s="15">
-        <v>34453</v>
+        <v>23938</v>
       </c>
       <c r="AM38" s="15">
-        <v>21711</v>
+        <v>20628</v>
       </c>
       <c r="AN38" s="15">
-        <v>23938</v>
+        <v>13091</v>
       </c>
       <c r="AO38" s="15">
-        <v>20628</v>
+        <v>4917</v>
       </c>
       <c r="AP38" s="15">
-        <v>13091</v>
+        <v>13271</v>
       </c>
       <c r="AQ38" s="15">
-        <v>4917</v>
+        <v>5861</v>
       </c>
       <c r="AR38" s="15">
-        <v>13271</v>
+        <v>6729</v>
       </c>
       <c r="AS38" s="15">
-        <v>5861</v>
+        <v>19714</v>
       </c>
       <c r="AT38" s="15">
-        <v>6729</v>
+        <v>16071</v>
       </c>
       <c r="AU38" s="15">
-        <v>19714</v>
+        <v>5185</v>
       </c>
       <c r="AV38" s="15">
-        <v>16071</v>
+        <v>7655</v>
       </c>
       <c r="AW38" s="15">
-        <v>5185</v>
+        <v>17070</v>
       </c>
       <c r="AX38" s="15">
-        <v>7655</v>
+        <v>16449</v>
       </c>
       <c r="AY38" s="15">
-        <v>17070</v>
+        <v>18339</v>
       </c>
       <c r="AZ38" s="15">
-        <v>16449</v>
+        <v>27607</v>
       </c>
       <c r="BA38" s="15">
-        <v>18339</v>
+        <v>22747</v>
       </c>
       <c r="BB38" s="15">
-        <v>27607</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -4981,11 +4981,11 @@
       <c r="AG39" s="17"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
+      <c r="AJ39" s="17">
+        <v>34453</v>
+      </c>
       <c r="AK39" s="17"/>
-      <c r="AL39" s="17">
-        <v>34453</v>
-      </c>
+      <c r="AL39" s="17"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
@@ -5078,11 +5078,11 @@
       <c r="AA40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB40" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC40" s="15" t="s">
-        <v>58</v>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>0</v>
       </c>
       <c r="AD40" s="15">
         <v>0</v>
@@ -5102,13 +5102,13 @@
       <c r="AI40" s="15">
         <v>0</v>
       </c>
-      <c r="AJ40" s="15">
-        <v>0</v>
-      </c>
+      <c r="AJ40" s="15"/>
       <c r="AK40" s="15">
         <v>0</v>
       </c>
-      <c r="AL40" s="15"/>
+      <c r="AL40" s="15">
+        <v>0</v>
+      </c>
       <c r="AM40" s="15">
         <v>0</v>
       </c>
@@ -5195,11 +5195,11 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
+      <c r="AJ41" s="17">
+        <v>0</v>
+      </c>
       <c r="AK41" s="17"/>
-      <c r="AL41" s="17">
-        <v>0</v>
-      </c>
+      <c r="AL41" s="17"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="17"/>
@@ -5292,11 +5292,11 @@
       <c r="AA42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC42" s="15" t="s">
-        <v>58</v>
+      <c r="AB42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>0</v>
       </c>
       <c r="AD42" s="15">
         <v>0</v>
@@ -5316,13 +5316,13 @@
       <c r="AI42" s="15">
         <v>0</v>
       </c>
-      <c r="AJ42" s="15">
-        <v>0</v>
-      </c>
+      <c r="AJ42" s="15"/>
       <c r="AK42" s="15">
         <v>0</v>
       </c>
-      <c r="AL42" s="15"/>
+      <c r="AL42" s="15">
+        <v>0</v>
+      </c>
       <c r="AM42" s="15">
         <v>0</v>
       </c>
@@ -5448,85 +5448,85 @@
         <v>0</v>
       </c>
       <c r="AB43" s="19">
-        <v>0</v>
+        <v>169110</v>
       </c>
       <c r="AC43" s="19">
-        <v>0</v>
+        <v>152982</v>
       </c>
       <c r="AD43" s="19">
-        <v>169110</v>
+        <v>150053</v>
       </c>
       <c r="AE43" s="19">
-        <v>152982</v>
+        <v>121067</v>
       </c>
       <c r="AF43" s="19">
-        <v>150053</v>
+        <v>121185</v>
       </c>
       <c r="AG43" s="19">
-        <v>121067</v>
+        <v>170065</v>
       </c>
       <c r="AH43" s="19">
-        <v>121185</v>
+        <v>154036</v>
       </c>
       <c r="AI43" s="19">
-        <v>170065</v>
+        <v>164805</v>
       </c>
       <c r="AJ43" s="19">
-        <v>154036</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="19">
-        <v>164805</v>
+        <v>116322</v>
       </c>
       <c r="AL43" s="19">
-        <v>0</v>
+        <v>96310</v>
       </c>
       <c r="AM43" s="19">
-        <v>116322</v>
+        <v>169052</v>
       </c>
       <c r="AN43" s="19">
-        <v>96310</v>
+        <v>155242</v>
       </c>
       <c r="AO43" s="19">
-        <v>169052</v>
+        <v>145326</v>
       </c>
       <c r="AP43" s="19">
-        <v>155242</v>
+        <v>134739</v>
       </c>
       <c r="AQ43" s="19">
-        <v>145326</v>
+        <v>100613</v>
       </c>
       <c r="AR43" s="19">
-        <v>134739</v>
+        <v>91885</v>
       </c>
       <c r="AS43" s="19">
-        <v>100613</v>
+        <v>132832</v>
       </c>
       <c r="AT43" s="19">
-        <v>91885</v>
+        <v>105790</v>
       </c>
       <c r="AU43" s="19">
-        <v>132832</v>
+        <v>124861</v>
       </c>
       <c r="AV43" s="19">
-        <v>105790</v>
+        <v>122756</v>
       </c>
       <c r="AW43" s="19">
-        <v>124861</v>
+        <v>137702</v>
       </c>
       <c r="AX43" s="19">
-        <v>122756</v>
+        <v>153479</v>
       </c>
       <c r="AY43" s="19">
-        <v>137702</v>
+        <v>153191</v>
       </c>
       <c r="AZ43" s="19">
-        <v>153479</v>
+        <v>147638</v>
       </c>
       <c r="BA43" s="19">
-        <v>153191</v>
+        <v>158572</v>
       </c>
       <c r="BB43" s="19">
-        <v>147638</v>
+        <v>145394</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6099,86 +6099,86 @@
       <c r="AA51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC51" s="11" t="s">
-        <v>58</v>
+      <c r="AB51" s="11">
+        <v>342153</v>
+      </c>
+      <c r="AC51" s="11">
+        <v>327434</v>
       </c>
       <c r="AD51" s="11">
-        <v>342153</v>
+        <v>217430</v>
       </c>
       <c r="AE51" s="11">
-        <v>327434</v>
+        <v>222052</v>
       </c>
       <c r="AF51" s="11">
-        <v>217430</v>
+        <v>221545</v>
       </c>
       <c r="AG51" s="11">
-        <v>222052</v>
+        <v>338741</v>
       </c>
       <c r="AH51" s="11">
-        <v>221545</v>
+        <v>269759</v>
       </c>
       <c r="AI51" s="11">
-        <v>338741</v>
+        <v>491223</v>
       </c>
       <c r="AJ51" s="11">
-        <v>269759</v>
+        <v>546159</v>
       </c>
       <c r="AK51" s="11">
-        <v>491223</v>
+        <v>326604</v>
       </c>
       <c r="AL51" s="11">
-        <v>546159</v>
+        <v>317905</v>
       </c>
       <c r="AM51" s="11">
-        <v>326604</v>
+        <v>724153</v>
       </c>
       <c r="AN51" s="11">
-        <v>317905</v>
+        <v>534381</v>
       </c>
       <c r="AO51" s="11">
-        <v>724153</v>
+        <v>534944</v>
       </c>
       <c r="AP51" s="11">
-        <v>534381</v>
+        <v>507724</v>
       </c>
       <c r="AQ51" s="11">
-        <v>534944</v>
+        <v>395490</v>
       </c>
       <c r="AR51" s="11">
-        <v>507724</v>
+        <v>365465</v>
       </c>
       <c r="AS51" s="11">
-        <v>395490</v>
+        <v>534970</v>
       </c>
       <c r="AT51" s="11">
-        <v>365465</v>
+        <v>404223</v>
       </c>
       <c r="AU51" s="11">
-        <v>534970</v>
+        <v>557009</v>
       </c>
       <c r="AV51" s="11">
-        <v>404223</v>
+        <v>571288</v>
       </c>
       <c r="AW51" s="11">
-        <v>557009</v>
+        <v>592945</v>
       </c>
       <c r="AX51" s="11">
-        <v>571288</v>
+        <v>654274</v>
       </c>
       <c r="AY51" s="11">
-        <v>592945</v>
+        <v>681464</v>
       </c>
       <c r="AZ51" s="11">
-        <v>654274</v>
+        <v>578702</v>
       </c>
       <c r="BA51" s="11">
-        <v>681464</v>
+        <v>630371</v>
       </c>
       <c r="BB51" s="11">
-        <v>578702</v>
+        <v>702100</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6258,86 +6258,86 @@
       <c r="AA52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC52" s="13" t="s">
-        <v>58</v>
+      <c r="AB52" s="13">
+        <v>19303</v>
+      </c>
+      <c r="AC52" s="13">
+        <v>19838</v>
       </c>
       <c r="AD52" s="13">
-        <v>19303</v>
+        <v>21275</v>
       </c>
       <c r="AE52" s="13">
-        <v>19838</v>
+        <v>6030</v>
       </c>
       <c r="AF52" s="13">
-        <v>21275</v>
+        <v>18180</v>
       </c>
       <c r="AG52" s="13">
-        <v>6030</v>
+        <v>20242</v>
       </c>
       <c r="AH52" s="13">
-        <v>18180</v>
+        <v>23916</v>
       </c>
       <c r="AI52" s="13">
-        <v>20242</v>
+        <v>23993</v>
       </c>
       <c r="AJ52" s="13">
-        <v>23916</v>
+        <v>30757</v>
       </c>
       <c r="AK52" s="13">
-        <v>23993</v>
+        <v>21122</v>
       </c>
       <c r="AL52" s="13">
-        <v>30757</v>
+        <v>13493</v>
       </c>
       <c r="AM52" s="13">
-        <v>21122</v>
+        <v>28991</v>
       </c>
       <c r="AN52" s="13">
-        <v>13493</v>
+        <v>52812</v>
       </c>
       <c r="AO52" s="13">
-        <v>28991</v>
+        <v>49411</v>
       </c>
       <c r="AP52" s="13">
-        <v>52812</v>
+        <v>27599</v>
       </c>
       <c r="AQ52" s="13">
-        <v>49411</v>
+        <v>14437</v>
       </c>
       <c r="AR52" s="13">
-        <v>27599</v>
+        <v>14261</v>
       </c>
       <c r="AS52" s="13">
-        <v>14437</v>
+        <v>33617</v>
       </c>
       <c r="AT52" s="13">
-        <v>14261</v>
+        <v>40070</v>
       </c>
       <c r="AU52" s="13">
-        <v>33617</v>
+        <v>49142</v>
       </c>
       <c r="AV52" s="13">
-        <v>40070</v>
+        <v>31194</v>
       </c>
       <c r="AW52" s="13">
-        <v>49142</v>
+        <v>28831</v>
       </c>
       <c r="AX52" s="13">
-        <v>31194</v>
-      </c>
-      <c r="AY52" s="13">
-        <v>28831</v>
+        <v>37063</v>
+      </c>
+      <c r="AY52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ52" s="13">
-        <v>37063</v>
-      </c>
-      <c r="BA52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB52" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA52" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6416,85 +6416,85 @@
         <v>0</v>
       </c>
       <c r="AB53" s="15">
-        <v>0</v>
+        <v>361456</v>
       </c>
       <c r="AC53" s="15">
-        <v>0</v>
+        <v>347272</v>
       </c>
       <c r="AD53" s="15">
-        <v>361456</v>
+        <v>238705</v>
       </c>
       <c r="AE53" s="15">
-        <v>347272</v>
+        <v>228082</v>
       </c>
       <c r="AF53" s="15">
-        <v>238705</v>
+        <v>239725</v>
       </c>
       <c r="AG53" s="15">
-        <v>228082</v>
+        <v>358983</v>
       </c>
       <c r="AH53" s="15">
-        <v>239725</v>
+        <v>293675</v>
       </c>
       <c r="AI53" s="15">
-        <v>358983</v>
+        <v>515216</v>
       </c>
       <c r="AJ53" s="15">
-        <v>293675</v>
+        <v>576916</v>
       </c>
       <c r="AK53" s="15">
-        <v>515216</v>
+        <v>347726</v>
       </c>
       <c r="AL53" s="15">
-        <v>576916</v>
+        <v>331398</v>
       </c>
       <c r="AM53" s="15">
-        <v>347726</v>
+        <v>753144</v>
       </c>
       <c r="AN53" s="15">
-        <v>331398</v>
+        <v>587193</v>
       </c>
       <c r="AO53" s="15">
-        <v>753144</v>
+        <v>584355</v>
       </c>
       <c r="AP53" s="15">
-        <v>587193</v>
+        <v>535323</v>
       </c>
       <c r="AQ53" s="15">
-        <v>584355</v>
+        <v>409927</v>
       </c>
       <c r="AR53" s="15">
-        <v>535323</v>
+        <v>379726</v>
       </c>
       <c r="AS53" s="15">
-        <v>409927</v>
+        <v>568587</v>
       </c>
       <c r="AT53" s="15">
-        <v>379726</v>
+        <v>444293</v>
       </c>
       <c r="AU53" s="15">
-        <v>568587</v>
+        <v>606151</v>
       </c>
       <c r="AV53" s="15">
-        <v>444293</v>
+        <v>602482</v>
       </c>
       <c r="AW53" s="15">
-        <v>606151</v>
+        <v>621776</v>
       </c>
       <c r="AX53" s="15">
-        <v>602482</v>
+        <v>691337</v>
       </c>
       <c r="AY53" s="15">
-        <v>621776</v>
+        <v>681464</v>
       </c>
       <c r="AZ53" s="15">
-        <v>691337</v>
+        <v>578702</v>
       </c>
       <c r="BA53" s="15">
-        <v>681464</v>
+        <v>630371</v>
       </c>
       <c r="BB53" s="15">
-        <v>578702</v>
+        <v>702100</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6667,50 +6667,50 @@
       <c r="AM55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO55" s="11" t="s">
-        <v>58</v>
+      <c r="AN55" s="11">
+        <v>79565</v>
+      </c>
+      <c r="AO55" s="11">
+        <v>28589</v>
       </c>
       <c r="AP55" s="11">
-        <v>79565</v>
+        <v>77617</v>
       </c>
       <c r="AQ55" s="11">
-        <v>28589</v>
+        <v>39225</v>
       </c>
       <c r="AR55" s="11">
-        <v>77617</v>
+        <v>34058</v>
       </c>
       <c r="AS55" s="11">
-        <v>39225</v>
+        <v>100476</v>
       </c>
       <c r="AT55" s="11">
-        <v>34058</v>
+        <v>90343</v>
       </c>
       <c r="AU55" s="11">
-        <v>100476</v>
+        <v>29208</v>
       </c>
       <c r="AV55" s="11">
-        <v>90343</v>
+        <v>41328</v>
       </c>
       <c r="AW55" s="11">
-        <v>29208</v>
+        <v>106887</v>
       </c>
       <c r="AX55" s="11">
-        <v>41328</v>
+        <v>103874</v>
       </c>
       <c r="AY55" s="11">
-        <v>106887</v>
+        <v>117309</v>
       </c>
       <c r="AZ55" s="11">
-        <v>103874</v>
+        <v>182944</v>
       </c>
       <c r="BA55" s="11">
-        <v>117309</v>
+        <v>142244</v>
       </c>
       <c r="BB55" s="11">
-        <v>182944</v>
+        <v>61114</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -6790,11 +6790,11 @@
       <c r="AA56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC56" s="13" t="s">
-        <v>58</v>
+      <c r="AB56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="13">
+        <v>0</v>
       </c>
       <c r="AD56" s="13">
         <v>0</v>
@@ -6826,11 +6826,11 @@
       <c r="AM56" s="13">
         <v>0</v>
       </c>
-      <c r="AN56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="13">
-        <v>0</v>
+      <c r="AN56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP56" s="13" t="s">
         <v>58</v>
@@ -6949,11 +6949,11 @@
       <c r="AA57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>58</v>
+      <c r="AB57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0</v>
       </c>
       <c r="AD57" s="11">
         <v>0</v>
@@ -6985,11 +6985,11 @@
       <c r="AM57" s="11">
         <v>0</v>
       </c>
-      <c r="AN57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>0</v>
+      <c r="AN57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>58</v>
@@ -7108,47 +7108,47 @@
       <c r="AA58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC58" s="13" t="s">
-        <v>58</v>
+      <c r="AB58" s="13">
+        <v>78788</v>
+      </c>
+      <c r="AC58" s="13">
+        <v>56503</v>
       </c>
       <c r="AD58" s="13">
-        <v>78788</v>
+        <v>136759</v>
       </c>
       <c r="AE58" s="13">
-        <v>56503</v>
+        <v>91590</v>
       </c>
       <c r="AF58" s="13">
-        <v>136759</v>
+        <v>84827</v>
       </c>
       <c r="AG58" s="13">
-        <v>91590</v>
+        <v>147508</v>
       </c>
       <c r="AH58" s="13">
-        <v>84827</v>
+        <v>193732</v>
       </c>
       <c r="AI58" s="13">
-        <v>147508</v>
+        <v>98918</v>
       </c>
       <c r="AJ58" s="13">
-        <v>193732</v>
+        <v>160643</v>
       </c>
       <c r="AK58" s="13">
-        <v>98918</v>
+        <v>101696</v>
       </c>
       <c r="AL58" s="13">
-        <v>160643</v>
+        <v>123442</v>
       </c>
       <c r="AM58" s="13">
-        <v>101696</v>
-      </c>
-      <c r="AN58" s="13">
-        <v>123442</v>
-      </c>
-      <c r="AO58" s="13">
         <v>138250</v>
+      </c>
+      <c r="AN58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP58" s="13" t="s">
         <v>58</v>
@@ -7266,85 +7266,85 @@
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <v>0</v>
+        <v>78788</v>
       </c>
       <c r="AC59" s="15">
-        <v>0</v>
+        <v>56503</v>
       </c>
       <c r="AD59" s="15">
-        <v>78788</v>
+        <v>136759</v>
       </c>
       <c r="AE59" s="15">
-        <v>56503</v>
+        <v>91590</v>
       </c>
       <c r="AF59" s="15">
-        <v>136759</v>
+        <v>84827</v>
       </c>
       <c r="AG59" s="15">
-        <v>91590</v>
+        <v>147508</v>
       </c>
       <c r="AH59" s="15">
-        <v>84827</v>
+        <v>193732</v>
       </c>
       <c r="AI59" s="15">
-        <v>147508</v>
+        <v>98918</v>
       </c>
       <c r="AJ59" s="15">
-        <v>193732</v>
+        <v>160643</v>
       </c>
       <c r="AK59" s="15">
-        <v>98918</v>
+        <v>101696</v>
       </c>
       <c r="AL59" s="15">
-        <v>160643</v>
+        <v>123442</v>
       </c>
       <c r="AM59" s="15">
-        <v>101696</v>
+        <v>138250</v>
       </c>
       <c r="AN59" s="15">
-        <v>123442</v>
+        <v>79565</v>
       </c>
       <c r="AO59" s="15">
-        <v>138250</v>
+        <v>28589</v>
       </c>
       <c r="AP59" s="15">
-        <v>79565</v>
+        <v>77617</v>
       </c>
       <c r="AQ59" s="15">
-        <v>28589</v>
+        <v>39225</v>
       </c>
       <c r="AR59" s="15">
-        <v>77617</v>
+        <v>34058</v>
       </c>
       <c r="AS59" s="15">
-        <v>39225</v>
+        <v>100476</v>
       </c>
       <c r="AT59" s="15">
-        <v>34058</v>
+        <v>90343</v>
       </c>
       <c r="AU59" s="15">
-        <v>100476</v>
+        <v>29208</v>
       </c>
       <c r="AV59" s="15">
-        <v>90343</v>
+        <v>41328</v>
       </c>
       <c r="AW59" s="15">
-        <v>29208</v>
+        <v>106887</v>
       </c>
       <c r="AX59" s="15">
-        <v>41328</v>
+        <v>103874</v>
       </c>
       <c r="AY59" s="15">
-        <v>106887</v>
+        <v>117309</v>
       </c>
       <c r="AZ59" s="15">
-        <v>103874</v>
+        <v>182944</v>
       </c>
       <c r="BA59" s="15">
-        <v>117309</v>
+        <v>142244</v>
       </c>
       <c r="BB59" s="15">
-        <v>182944</v>
+        <v>61114</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7481,11 +7481,11 @@
       <c r="AA61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB61" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC61" s="15" t="s">
-        <v>58</v>
+      <c r="AB61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="15">
+        <v>0</v>
       </c>
       <c r="AD61" s="15">
         <v>0</v>
@@ -7697,11 +7697,11 @@
       <c r="AA63" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB63" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC63" s="15" t="s">
-        <v>58</v>
+      <c r="AB63" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="15">
+        <v>0</v>
       </c>
       <c r="AD63" s="15">
         <v>0</v>
@@ -7913,11 +7913,11 @@
       <c r="AA65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC65" s="11" t="s">
-        <v>58</v>
+      <c r="AB65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>0</v>
       </c>
       <c r="AD65" s="11">
         <v>0</v>
@@ -8071,85 +8071,85 @@
         <v>0</v>
       </c>
       <c r="AB66" s="19">
-        <v>0</v>
+        <v>440244</v>
       </c>
       <c r="AC66" s="19">
-        <v>0</v>
+        <v>403775</v>
       </c>
       <c r="AD66" s="19">
-        <v>440244</v>
+        <v>375464</v>
       </c>
       <c r="AE66" s="19">
-        <v>403775</v>
+        <v>319672</v>
       </c>
       <c r="AF66" s="19">
-        <v>375464</v>
+        <v>324552</v>
       </c>
       <c r="AG66" s="19">
-        <v>319672</v>
+        <v>506491</v>
       </c>
       <c r="AH66" s="19">
-        <v>324552</v>
+        <v>487407</v>
       </c>
       <c r="AI66" s="19">
-        <v>506491</v>
+        <v>614134</v>
       </c>
       <c r="AJ66" s="19">
-        <v>487407</v>
+        <v>737559</v>
       </c>
       <c r="AK66" s="19">
-        <v>614134</v>
+        <v>449422</v>
       </c>
       <c r="AL66" s="19">
-        <v>737559</v>
+        <v>454840</v>
       </c>
       <c r="AM66" s="19">
-        <v>449422</v>
+        <v>891394</v>
       </c>
       <c r="AN66" s="19">
-        <v>454840</v>
+        <v>666758</v>
       </c>
       <c r="AO66" s="19">
-        <v>891394</v>
+        <v>612944</v>
       </c>
       <c r="AP66" s="19">
-        <v>666758</v>
+        <v>612940</v>
       </c>
       <c r="AQ66" s="19">
-        <v>612944</v>
+        <v>449152</v>
       </c>
       <c r="AR66" s="19">
-        <v>612940</v>
+        <v>413784</v>
       </c>
       <c r="AS66" s="19">
-        <v>449152</v>
+        <v>669063</v>
       </c>
       <c r="AT66" s="19">
-        <v>413784</v>
+        <v>534636</v>
       </c>
       <c r="AU66" s="19">
-        <v>669063</v>
+        <v>635359</v>
       </c>
       <c r="AV66" s="19">
-        <v>534636</v>
+        <v>643810</v>
       </c>
       <c r="AW66" s="19">
-        <v>635359</v>
+        <v>728663</v>
       </c>
       <c r="AX66" s="19">
-        <v>643810</v>
+        <v>795211</v>
       </c>
       <c r="AY66" s="19">
-        <v>728663</v>
+        <v>798773</v>
       </c>
       <c r="AZ66" s="19">
-        <v>795211</v>
+        <v>761646</v>
       </c>
       <c r="BA66" s="19">
-        <v>798773</v>
+        <v>772615</v>
       </c>
       <c r="BB66" s="19">
-        <v>761646</v>
+        <v>763214</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8663,86 +8663,86 @@
       <c r="AA73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC73" s="11" t="s">
-        <v>58</v>
+      <c r="AB73" s="11">
+        <v>2608987</v>
+      </c>
+      <c r="AC73" s="11">
+        <v>2708080</v>
       </c>
       <c r="AD73" s="11">
-        <v>2608987</v>
+        <v>2574507</v>
       </c>
       <c r="AE73" s="11">
-        <v>2708080</v>
+        <v>2629390</v>
       </c>
       <c r="AF73" s="11">
-        <v>2574507</v>
+        <v>2646672</v>
       </c>
       <c r="AG73" s="11">
-        <v>2629390</v>
+        <v>2740268</v>
       </c>
       <c r="AH73" s="11">
-        <v>2646672</v>
+        <v>2810868</v>
       </c>
       <c r="AI73" s="11">
-        <v>2740268</v>
+        <v>3742651</v>
       </c>
       <c r="AJ73" s="11">
-        <v>2810868</v>
+        <v>3843456</v>
       </c>
       <c r="AK73" s="11">
-        <v>3742651</v>
+        <v>3816493</v>
       </c>
       <c r="AL73" s="11">
-        <v>3843456</v>
+        <v>4780886</v>
       </c>
       <c r="AM73" s="11">
-        <v>3816493</v>
+        <v>5188569</v>
       </c>
       <c r="AN73" s="11">
-        <v>4780886</v>
+        <v>4288910</v>
       </c>
       <c r="AO73" s="11">
-        <v>5188569</v>
+        <v>4292119</v>
       </c>
       <c r="AP73" s="11">
-        <v>4288910</v>
+        <v>4528075</v>
       </c>
       <c r="AQ73" s="11">
-        <v>4292119</v>
+        <v>4410112</v>
       </c>
       <c r="AR73" s="11">
-        <v>4528075</v>
+        <v>4620583</v>
       </c>
       <c r="AS73" s="11">
-        <v>4410112</v>
+        <v>5110381</v>
       </c>
       <c r="AT73" s="11">
-        <v>4620583</v>
+        <v>5193666</v>
       </c>
       <c r="AU73" s="11">
-        <v>5110381</v>
+        <v>5178492</v>
       </c>
       <c r="AV73" s="11">
-        <v>5193666</v>
+        <v>5338392</v>
       </c>
       <c r="AW73" s="11">
-        <v>5178492</v>
+        <v>5253903</v>
       </c>
       <c r="AX73" s="11">
-        <v>5338392</v>
+        <v>5117233</v>
       </c>
       <c r="AY73" s="11">
-        <v>5253903</v>
+        <v>5053422</v>
       </c>
       <c r="AZ73" s="11">
-        <v>5117233</v>
+        <v>4821271</v>
       </c>
       <c r="BA73" s="11">
-        <v>5053422</v>
+        <v>4641053</v>
       </c>
       <c r="BB73" s="11">
-        <v>4821271</v>
+        <v>5187369</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8822,80 +8822,80 @@
       <c r="AA74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC74" s="13" t="s">
-        <v>58</v>
+      <c r="AB74" s="13">
+        <v>1480064</v>
+      </c>
+      <c r="AC74" s="13">
+        <v>1503448</v>
       </c>
       <c r="AD74" s="13">
-        <v>1480064</v>
+        <v>1778846</v>
       </c>
       <c r="AE74" s="13">
-        <v>1503448</v>
+        <v>1602019</v>
       </c>
       <c r="AF74" s="13">
-        <v>1778846</v>
+        <v>1803214</v>
       </c>
       <c r="AG74" s="13">
-        <v>1602019</v>
+        <v>1821306</v>
       </c>
       <c r="AH74" s="13">
-        <v>1803214</v>
+        <v>1970341</v>
       </c>
       <c r="AI74" s="13">
-        <v>1821306</v>
+        <v>1997586</v>
       </c>
       <c r="AJ74" s="13">
-        <v>1970341</v>
+        <v>2537288</v>
       </c>
       <c r="AK74" s="13">
-        <v>1997586</v>
+        <v>2338056</v>
       </c>
       <c r="AL74" s="13">
-        <v>2537288</v>
+        <v>2295899</v>
       </c>
       <c r="AM74" s="13">
-        <v>2338056</v>
+        <v>3273230</v>
       </c>
       <c r="AN74" s="13">
-        <v>2295899</v>
+        <v>3008374</v>
       </c>
       <c r="AO74" s="13">
-        <v>3273230</v>
+        <v>3132235</v>
       </c>
       <c r="AP74" s="13">
-        <v>3008374</v>
+        <v>2954925</v>
       </c>
       <c r="AQ74" s="13">
-        <v>3132235</v>
+        <v>2845290</v>
       </c>
       <c r="AR74" s="13">
-        <v>2954925</v>
+        <v>2352912</v>
       </c>
       <c r="AS74" s="13">
-        <v>2845290</v>
+        <v>3985418</v>
       </c>
       <c r="AT74" s="13">
-        <v>2352912</v>
+        <v>3370342</v>
       </c>
       <c r="AU74" s="13">
-        <v>3985418</v>
+        <v>4056629</v>
       </c>
       <c r="AV74" s="13">
-        <v>3370342</v>
+        <v>3857779</v>
       </c>
       <c r="AW74" s="13">
-        <v>4056629</v>
+        <v>3708644</v>
       </c>
       <c r="AX74" s="13">
-        <v>3857779</v>
-      </c>
-      <c r="AY74" s="13">
-        <v>3708644</v>
-      </c>
-      <c r="AZ74" s="13">
         <v>4040445</v>
+      </c>
+      <c r="AY74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA74" s="13" t="s">
         <v>58</v>
@@ -9074,50 +9074,50 @@
       <c r="AM76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO76" s="11" t="s">
-        <v>58</v>
+      <c r="AN76" s="11">
+        <v>6077840</v>
+      </c>
+      <c r="AO76" s="11">
+        <v>5814318</v>
       </c>
       <c r="AP76" s="11">
-        <v>6077840</v>
+        <v>5848617</v>
       </c>
       <c r="AQ76" s="11">
-        <v>5814318</v>
+        <v>6692544</v>
       </c>
       <c r="AR76" s="11">
-        <v>5848617</v>
+        <v>5061376</v>
       </c>
       <c r="AS76" s="11">
-        <v>6692544</v>
+        <v>5096683</v>
       </c>
       <c r="AT76" s="11">
-        <v>5061376</v>
+        <v>5621492</v>
       </c>
       <c r="AU76" s="11">
-        <v>5096683</v>
+        <v>5633173</v>
       </c>
       <c r="AV76" s="11">
-        <v>5621492</v>
+        <v>5398824</v>
       </c>
       <c r="AW76" s="11">
-        <v>5633173</v>
+        <v>6261687</v>
       </c>
       <c r="AX76" s="11">
-        <v>5398824</v>
+        <v>6314913</v>
       </c>
       <c r="AY76" s="11">
-        <v>6261687</v>
+        <v>6396696</v>
       </c>
       <c r="AZ76" s="11">
-        <v>6314913</v>
+        <v>6626725</v>
       </c>
       <c r="BA76" s="11">
-        <v>6396696</v>
+        <v>6253308</v>
       </c>
       <c r="BB76" s="11">
-        <v>6626725</v>
+        <v>6083416</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9197,47 +9197,47 @@
       <c r="AA77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC77" s="13" t="s">
-        <v>58</v>
+      <c r="AB77" s="13">
+        <v>3161130</v>
+      </c>
+      <c r="AC77" s="13">
+        <v>2993219</v>
       </c>
       <c r="AD77" s="13">
-        <v>3161130</v>
+        <v>2549666</v>
       </c>
       <c r="AE77" s="13">
-        <v>2993219</v>
+        <v>2787873</v>
       </c>
       <c r="AF77" s="13">
-        <v>2549666</v>
+        <v>3096328</v>
       </c>
       <c r="AG77" s="13">
-        <v>2787873</v>
+        <v>4174558</v>
       </c>
       <c r="AH77" s="13">
-        <v>3096328</v>
+        <v>4218168</v>
       </c>
       <c r="AI77" s="13">
-        <v>4174558</v>
+        <v>4591441</v>
       </c>
       <c r="AJ77" s="13">
-        <v>4218168</v>
+        <v>4662671</v>
       </c>
       <c r="AK77" s="13">
-        <v>4591441</v>
+        <v>4684077</v>
       </c>
       <c r="AL77" s="13">
-        <v>4662671</v>
+        <v>5156738</v>
       </c>
       <c r="AM77" s="13">
-        <v>4684077</v>
-      </c>
-      <c r="AN77" s="13">
-        <v>5156738</v>
-      </c>
-      <c r="AO77" s="13">
         <v>6702055</v>
+      </c>
+      <c r="AN77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP77" s="13" t="s">
         <v>58</v>

--- a/database/industries/siman/seshargh/product/monthly_seprated.xlsx
+++ b/database/industries/siman/seshargh/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\seshargh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDFFD62-DF1F-44D3-AADB-42A1E215A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB916750-DC25-40F0-89DE-4A7CA380C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سشرق-سیمان‌ شرق‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 2 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 3 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1501,95 +1501,95 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>165203</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>148460</v>
       </c>
       <c r="AB11" s="11">
-        <v>165203</v>
+        <v>127240</v>
       </c>
       <c r="AC11" s="11">
-        <v>148460</v>
+        <v>131094</v>
       </c>
       <c r="AD11" s="11">
-        <v>127240</v>
+        <v>102957</v>
       </c>
       <c r="AE11" s="11">
-        <v>131094</v>
+        <v>170779</v>
       </c>
       <c r="AF11" s="11">
-        <v>102957</v>
+        <v>128789</v>
       </c>
       <c r="AG11" s="11">
-        <v>170779</v>
+        <v>156144</v>
       </c>
       <c r="AH11" s="11">
-        <v>128789</v>
+        <v>175539</v>
       </c>
       <c r="AI11" s="11">
-        <v>156144</v>
+        <v>120030</v>
       </c>
       <c r="AJ11" s="11">
-        <v>175539</v>
+        <v>84260</v>
       </c>
       <c r="AK11" s="11">
-        <v>120030</v>
+        <v>162740</v>
       </c>
       <c r="AL11" s="11">
-        <v>84260</v>
+        <v>149549</v>
       </c>
       <c r="AM11" s="11">
-        <v>162740</v>
+        <v>141959</v>
       </c>
       <c r="AN11" s="11">
-        <v>149549</v>
+        <v>119514</v>
       </c>
       <c r="AO11" s="11">
-        <v>141959</v>
+        <v>97342</v>
       </c>
       <c r="AP11" s="11">
-        <v>119514</v>
+        <v>86630</v>
       </c>
       <c r="AQ11" s="11">
-        <v>97342</v>
+        <v>115248</v>
       </c>
       <c r="AR11" s="11">
-        <v>86630</v>
+        <v>87850</v>
       </c>
       <c r="AS11" s="11">
-        <v>115248</v>
+        <v>110088</v>
       </c>
       <c r="AT11" s="11">
-        <v>87850</v>
+        <v>110163</v>
       </c>
       <c r="AU11" s="11">
-        <v>110088</v>
+        <v>139888</v>
       </c>
       <c r="AV11" s="11">
-        <v>110163</v>
+        <v>139500</v>
       </c>
       <c r="AW11" s="11">
-        <v>139888</v>
+        <v>163852</v>
       </c>
       <c r="AX11" s="11">
-        <v>139500</v>
+        <v>150786</v>
       </c>
       <c r="AY11" s="11">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="AZ11" s="11">
-        <v>150786</v>
+        <v>143543</v>
       </c>
       <c r="BA11" s="11">
-        <v>174698</v>
+        <v>103887</v>
       </c>
       <c r="BB11" s="11">
-        <v>143543</v>
+        <v>114554</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1660,95 +1660,95 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>12944</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>12497</v>
       </c>
       <c r="AB12" s="13">
-        <v>12944</v>
+        <v>12192</v>
       </c>
       <c r="AC12" s="13">
-        <v>12497</v>
+        <v>2433</v>
       </c>
       <c r="AD12" s="13">
-        <v>12192</v>
+        <v>9578</v>
       </c>
       <c r="AE12" s="13">
-        <v>2433</v>
+        <v>10765</v>
       </c>
       <c r="AF12" s="13">
-        <v>9578</v>
+        <v>12106</v>
       </c>
       <c r="AG12" s="13">
-        <v>10765</v>
+        <v>13057</v>
       </c>
       <c r="AH12" s="13">
-        <v>12106</v>
+        <v>11399</v>
       </c>
       <c r="AI12" s="13">
-        <v>13057</v>
+        <v>11191</v>
       </c>
       <c r="AJ12" s="13">
-        <v>11399</v>
+        <v>10594</v>
       </c>
       <c r="AK12" s="13">
-        <v>11191</v>
+        <v>11318</v>
       </c>
       <c r="AL12" s="13">
-        <v>10594</v>
+        <v>11101</v>
       </c>
       <c r="AM12" s="13">
-        <v>11318</v>
+        <v>12308</v>
       </c>
       <c r="AN12" s="13">
-        <v>11101</v>
+        <v>11677</v>
       </c>
       <c r="AO12" s="13">
-        <v>12308</v>
+        <v>7107</v>
       </c>
       <c r="AP12" s="13">
-        <v>11677</v>
+        <v>4267</v>
       </c>
       <c r="AQ12" s="13">
-        <v>7107</v>
+        <v>4700</v>
       </c>
       <c r="AR12" s="13">
-        <v>4267</v>
+        <v>11870</v>
       </c>
       <c r="AS12" s="13">
-        <v>4700</v>
+        <v>11533</v>
       </c>
       <c r="AT12" s="13">
-        <v>11870</v>
+        <v>11027</v>
       </c>
       <c r="AU12" s="13">
-        <v>11533</v>
+        <v>7322</v>
       </c>
       <c r="AV12" s="13">
-        <v>11027</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>7322</v>
+        <v>7191</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX12" s="13">
-        <v>7191</v>
-      </c>
-      <c r="AY12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB12" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
@@ -1818,94 +1818,94 @@
         <v>0</v>
       </c>
       <c r="Z13" s="15">
-        <v>0</v>
+        <v>178147</v>
       </c>
       <c r="AA13" s="15">
-        <v>0</v>
+        <v>160957</v>
       </c>
       <c r="AB13" s="15">
-        <v>178147</v>
+        <v>139432</v>
       </c>
       <c r="AC13" s="15">
-        <v>160957</v>
+        <v>133527</v>
       </c>
       <c r="AD13" s="15">
-        <v>139432</v>
+        <v>112535</v>
       </c>
       <c r="AE13" s="15">
-        <v>133527</v>
+        <v>181544</v>
       </c>
       <c r="AF13" s="15">
-        <v>112535</v>
+        <v>140895</v>
       </c>
       <c r="AG13" s="15">
-        <v>181544</v>
+        <v>169201</v>
       </c>
       <c r="AH13" s="15">
-        <v>140895</v>
+        <v>186938</v>
       </c>
       <c r="AI13" s="15">
-        <v>169201</v>
+        <v>131221</v>
       </c>
       <c r="AJ13" s="15">
-        <v>186938</v>
+        <v>94854</v>
       </c>
       <c r="AK13" s="15">
-        <v>131221</v>
+        <v>174058</v>
       </c>
       <c r="AL13" s="15">
-        <v>94854</v>
+        <v>160650</v>
       </c>
       <c r="AM13" s="15">
-        <v>174058</v>
+        <v>154267</v>
       </c>
       <c r="AN13" s="15">
-        <v>160650</v>
+        <v>131191</v>
       </c>
       <c r="AO13" s="15">
-        <v>154267</v>
+        <v>104449</v>
       </c>
       <c r="AP13" s="15">
-        <v>131191</v>
+        <v>90897</v>
       </c>
       <c r="AQ13" s="15">
-        <v>104449</v>
+        <v>119948</v>
       </c>
       <c r="AR13" s="15">
-        <v>90897</v>
+        <v>99720</v>
       </c>
       <c r="AS13" s="15">
-        <v>119948</v>
+        <v>121621</v>
       </c>
       <c r="AT13" s="15">
-        <v>99720</v>
+        <v>121190</v>
       </c>
       <c r="AU13" s="15">
-        <v>121621</v>
+        <v>147210</v>
       </c>
       <c r="AV13" s="15">
-        <v>121190</v>
+        <v>146691</v>
       </c>
       <c r="AW13" s="15">
-        <v>147210</v>
+        <v>163852</v>
       </c>
       <c r="AX13" s="15">
-        <v>146691</v>
+        <v>150786</v>
       </c>
       <c r="AY13" s="15">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="AZ13" s="15">
-        <v>150786</v>
+        <v>143543</v>
       </c>
       <c r="BA13" s="15">
-        <v>174698</v>
+        <v>103887</v>
       </c>
       <c r="BB13" s="15">
-        <v>143543</v>
+        <v>114554</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
@@ -2072,23 +2072,23 @@
       <c r="AL15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
+      <c r="AM15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2192,11 +2192,11 @@
       <c r="Y16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>58</v>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
       </c>
       <c r="AB16" s="13">
         <v>0</v>
@@ -2213,11 +2213,11 @@
       <c r="AF16" s="13">
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2280,7 +2280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
@@ -2351,11 +2351,11 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>0</v>
       </c>
       <c r="AB17" s="11">
         <v>0</v>
@@ -2372,11 +2372,11 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2439,7 +2439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2510,11 +2510,11 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
       </c>
       <c r="AB18" s="13">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AF18" s="13">
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2598,7 +2598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2691,14 +2691,14 @@
       <c r="AG19" s="15">
         <v>0</v>
       </c>
-      <c r="AH19" s="15">
-        <v>0</v>
+      <c r="AH19" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AI19" s="15">
         <v>0</v>
       </c>
-      <c r="AJ19" s="15" t="s">
-        <v>58</v>
+      <c r="AJ19" s="15">
+        <v>0</v>
       </c>
       <c r="AK19" s="15">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2790,11 +2790,11 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
+      <c r="AH20" s="17">
+        <v>0</v>
+      </c>
       <c r="AI20" s="17"/>
-      <c r="AJ20" s="17">
-        <v>0</v>
-      </c>
+      <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
       <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
@@ -2814,7 +2814,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
@@ -2883,11 +2883,11 @@
       <c r="Y21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA21" s="15" t="s">
-        <v>58</v>
+      <c r="Z21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
       </c>
       <c r="AB21" s="15">
         <v>0</v>
@@ -2907,13 +2907,13 @@
       <c r="AG21" s="15">
         <v>0</v>
       </c>
-      <c r="AH21" s="15">
-        <v>0</v>
-      </c>
+      <c r="AH21" s="15"/>
       <c r="AI21" s="15">
         <v>0</v>
       </c>
-      <c r="AJ21" s="15"/>
+      <c r="AJ21" s="15">
+        <v>0</v>
+      </c>
       <c r="AK21" s="15">
         <v>0</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>68</v>
       </c>
@@ -3039,94 +3039,94 @@
         <v>0</v>
       </c>
       <c r="Z22" s="19">
-        <v>0</v>
+        <v>178147</v>
       </c>
       <c r="AA22" s="19">
-        <v>0</v>
+        <v>160957</v>
       </c>
       <c r="AB22" s="19">
-        <v>178147</v>
+        <v>139432</v>
       </c>
       <c r="AC22" s="19">
-        <v>160957</v>
+        <v>133527</v>
       </c>
       <c r="AD22" s="19">
-        <v>139432</v>
+        <v>112535</v>
       </c>
       <c r="AE22" s="19">
-        <v>133527</v>
+        <v>181544</v>
       </c>
       <c r="AF22" s="19">
-        <v>112535</v>
+        <v>140895</v>
       </c>
       <c r="AG22" s="19">
-        <v>181544</v>
+        <v>169201</v>
       </c>
       <c r="AH22" s="19">
-        <v>140895</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="19">
-        <v>169201</v>
+        <v>131221</v>
       </c>
       <c r="AJ22" s="19">
-        <v>0</v>
+        <v>94854</v>
       </c>
       <c r="AK22" s="19">
-        <v>131221</v>
+        <v>174058</v>
       </c>
       <c r="AL22" s="19">
-        <v>94854</v>
+        <v>160650</v>
       </c>
       <c r="AM22" s="19">
-        <v>174058</v>
+        <v>154267</v>
       </c>
       <c r="AN22" s="19">
-        <v>160650</v>
+        <v>131191</v>
       </c>
       <c r="AO22" s="19">
-        <v>154267</v>
+        <v>104449</v>
       </c>
       <c r="AP22" s="19">
-        <v>131191</v>
+        <v>90897</v>
       </c>
       <c r="AQ22" s="19">
-        <v>104449</v>
+        <v>119948</v>
       </c>
       <c r="AR22" s="19">
-        <v>90897</v>
+        <v>99720</v>
       </c>
       <c r="AS22" s="19">
-        <v>119948</v>
+        <v>121621</v>
       </c>
       <c r="AT22" s="19">
-        <v>99720</v>
+        <v>121190</v>
       </c>
       <c r="AU22" s="19">
-        <v>121621</v>
+        <v>147210</v>
       </c>
       <c r="AV22" s="19">
-        <v>121190</v>
+        <v>146691</v>
       </c>
       <c r="AW22" s="19">
-        <v>147210</v>
+        <v>163852</v>
       </c>
       <c r="AX22" s="19">
-        <v>146691</v>
+        <v>150786</v>
       </c>
       <c r="AY22" s="19">
-        <v>163852</v>
+        <v>174698</v>
       </c>
       <c r="AZ22" s="19">
-        <v>150786</v>
+        <v>143543</v>
       </c>
       <c r="BA22" s="19">
-        <v>174698</v>
+        <v>103887</v>
       </c>
       <c r="BB22" s="19">
-        <v>143543</v>
+        <v>114554</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3240,7 +3240,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3295,7 +3295,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3350,7 +3350,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>69</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3562,7 +3562,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
@@ -3690,95 +3690,95 @@
       <c r="Y30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA30" s="11" t="s">
-        <v>58</v>
+      <c r="Z30" s="11">
+        <v>131144</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>120910</v>
       </c>
       <c r="AB30" s="11">
-        <v>131144</v>
+        <v>84455</v>
       </c>
       <c r="AC30" s="11">
-        <v>120910</v>
+        <v>84450</v>
       </c>
       <c r="AD30" s="11">
-        <v>84455</v>
+        <v>83707</v>
       </c>
       <c r="AE30" s="11">
-        <v>84450</v>
+        <v>123616</v>
       </c>
       <c r="AF30" s="11">
-        <v>83707</v>
+        <v>95970</v>
       </c>
       <c r="AG30" s="11">
-        <v>123616</v>
+        <v>131250</v>
       </c>
       <c r="AH30" s="11">
-        <v>95970</v>
+        <v>142101</v>
       </c>
       <c r="AI30" s="11">
-        <v>131250</v>
+        <v>85577</v>
       </c>
       <c r="AJ30" s="11">
-        <v>142101</v>
+        <v>66495</v>
       </c>
       <c r="AK30" s="11">
-        <v>85577</v>
+        <v>139567</v>
       </c>
       <c r="AL30" s="11">
-        <v>66495</v>
+        <v>124596</v>
       </c>
       <c r="AM30" s="11">
-        <v>139567</v>
+        <v>124634</v>
       </c>
       <c r="AN30" s="11">
-        <v>124596</v>
+        <v>112128</v>
       </c>
       <c r="AO30" s="11">
-        <v>124634</v>
+        <v>89678</v>
       </c>
       <c r="AP30" s="11">
-        <v>112128</v>
+        <v>79095</v>
       </c>
       <c r="AQ30" s="11">
-        <v>89678</v>
+        <v>104683</v>
       </c>
       <c r="AR30" s="11">
-        <v>79095</v>
+        <v>77830</v>
       </c>
       <c r="AS30" s="11">
-        <v>104683</v>
+        <v>107562</v>
       </c>
       <c r="AT30" s="11">
-        <v>77830</v>
+        <v>107015</v>
       </c>
       <c r="AU30" s="11">
-        <v>107562</v>
+        <v>112858</v>
       </c>
       <c r="AV30" s="11">
-        <v>107015</v>
+        <v>127857</v>
       </c>
       <c r="AW30" s="11">
-        <v>112858</v>
+        <v>134852</v>
       </c>
       <c r="AX30" s="11">
-        <v>127857</v>
+        <v>120031</v>
       </c>
       <c r="AY30" s="11">
-        <v>134852</v>
+        <v>135825</v>
       </c>
       <c r="AZ30" s="11">
-        <v>120031</v>
+        <v>135348</v>
       </c>
       <c r="BA30" s="11">
-        <v>135825</v>
+        <v>97383</v>
       </c>
       <c r="BB30" s="11">
-        <v>135348</v>
+        <v>100124</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3849,95 +3849,95 @@
       <c r="Y31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>58</v>
+      <c r="Z31" s="13">
+        <v>13042</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>13195</v>
       </c>
       <c r="AB31" s="13">
-        <v>13042</v>
+        <v>11960</v>
       </c>
       <c r="AC31" s="13">
-        <v>13195</v>
+        <v>3764</v>
       </c>
       <c r="AD31" s="13">
-        <v>11960</v>
+        <v>10082</v>
       </c>
       <c r="AE31" s="13">
-        <v>3764</v>
+        <v>11114</v>
       </c>
       <c r="AF31" s="13">
-        <v>10082</v>
+        <v>12138</v>
       </c>
       <c r="AG31" s="13">
-        <v>11114</v>
+        <v>12011</v>
       </c>
       <c r="AH31" s="13">
-        <v>12138</v>
+        <v>12122</v>
       </c>
       <c r="AI31" s="13">
-        <v>12011</v>
+        <v>9034</v>
       </c>
       <c r="AJ31" s="13">
-        <v>12122</v>
+        <v>5877</v>
       </c>
       <c r="AK31" s="13">
-        <v>9034</v>
+        <v>8857</v>
       </c>
       <c r="AL31" s="13">
-        <v>5877</v>
+        <v>17555</v>
       </c>
       <c r="AM31" s="13">
-        <v>8857</v>
+        <v>15775</v>
       </c>
       <c r="AN31" s="13">
-        <v>17555</v>
+        <v>9340</v>
       </c>
       <c r="AO31" s="13">
-        <v>15775</v>
+        <v>5074</v>
       </c>
       <c r="AP31" s="13">
-        <v>9340</v>
+        <v>6061</v>
       </c>
       <c r="AQ31" s="13">
-        <v>5074</v>
+        <v>8435</v>
       </c>
       <c r="AR31" s="13">
-        <v>6061</v>
+        <v>11889</v>
       </c>
       <c r="AS31" s="13">
-        <v>8435</v>
+        <v>12114</v>
       </c>
       <c r="AT31" s="13">
-        <v>11889</v>
+        <v>8086</v>
       </c>
       <c r="AU31" s="13">
-        <v>12114</v>
+        <v>7774</v>
       </c>
       <c r="AV31" s="13">
-        <v>8086</v>
-      </c>
-      <c r="AW31" s="13">
-        <v>7774</v>
+        <v>9173</v>
+      </c>
+      <c r="AW31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX31" s="13">
-        <v>9173</v>
-      </c>
-      <c r="AY31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ31" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB31" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>71</v>
       </c>
@@ -4007,94 +4007,94 @@
         <v>0</v>
       </c>
       <c r="Z32" s="15">
-        <v>0</v>
+        <v>144186</v>
       </c>
       <c r="AA32" s="15">
-        <v>0</v>
+        <v>134105</v>
       </c>
       <c r="AB32" s="15">
-        <v>144186</v>
+        <v>96415</v>
       </c>
       <c r="AC32" s="15">
-        <v>134105</v>
+        <v>88214</v>
       </c>
       <c r="AD32" s="15">
-        <v>96415</v>
+        <v>93789</v>
       </c>
       <c r="AE32" s="15">
-        <v>88214</v>
+        <v>134730</v>
       </c>
       <c r="AF32" s="15">
-        <v>93789</v>
+        <v>108108</v>
       </c>
       <c r="AG32" s="15">
-        <v>134730</v>
+        <v>143261</v>
       </c>
       <c r="AH32" s="15">
-        <v>108108</v>
+        <v>154223</v>
       </c>
       <c r="AI32" s="15">
-        <v>143261</v>
+        <v>94611</v>
       </c>
       <c r="AJ32" s="15">
-        <v>154223</v>
+        <v>72372</v>
       </c>
       <c r="AK32" s="15">
-        <v>94611</v>
+        <v>148424</v>
       </c>
       <c r="AL32" s="15">
-        <v>72372</v>
+        <v>142151</v>
       </c>
       <c r="AM32" s="15">
-        <v>148424</v>
+        <v>140409</v>
       </c>
       <c r="AN32" s="15">
-        <v>142151</v>
+        <v>121468</v>
       </c>
       <c r="AO32" s="15">
-        <v>140409</v>
+        <v>94752</v>
       </c>
       <c r="AP32" s="15">
-        <v>121468</v>
+        <v>85156</v>
       </c>
       <c r="AQ32" s="15">
-        <v>94752</v>
+        <v>113118</v>
       </c>
       <c r="AR32" s="15">
-        <v>85156</v>
+        <v>89719</v>
       </c>
       <c r="AS32" s="15">
-        <v>113118</v>
+        <v>119676</v>
       </c>
       <c r="AT32" s="15">
-        <v>89719</v>
+        <v>115101</v>
       </c>
       <c r="AU32" s="15">
-        <v>119676</v>
+        <v>120632</v>
       </c>
       <c r="AV32" s="15">
-        <v>115101</v>
+        <v>137030</v>
       </c>
       <c r="AW32" s="15">
-        <v>120632</v>
+        <v>134852</v>
       </c>
       <c r="AX32" s="15">
-        <v>137030</v>
+        <v>120031</v>
       </c>
       <c r="AY32" s="15">
-        <v>134852</v>
+        <v>135825</v>
       </c>
       <c r="AZ32" s="15">
-        <v>120031</v>
+        <v>135348</v>
       </c>
       <c r="BA32" s="15">
-        <v>135825</v>
+        <v>97383</v>
       </c>
       <c r="BB32" s="15">
-        <v>135348</v>
+        <v>100124</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4258,59 +4258,59 @@
       <c r="AK34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM34" s="11" t="s">
-        <v>58</v>
+      <c r="AL34" s="11">
+        <v>13091</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>4917</v>
       </c>
       <c r="AN34" s="11">
-        <v>13091</v>
+        <v>13271</v>
       </c>
       <c r="AO34" s="11">
-        <v>4917</v>
+        <v>5861</v>
       </c>
       <c r="AP34" s="11">
-        <v>13271</v>
+        <v>6729</v>
       </c>
       <c r="AQ34" s="11">
-        <v>5861</v>
+        <v>19714</v>
       </c>
       <c r="AR34" s="11">
-        <v>6729</v>
+        <v>16071</v>
       </c>
       <c r="AS34" s="11">
-        <v>19714</v>
+        <v>5185</v>
       </c>
       <c r="AT34" s="11">
-        <v>16071</v>
+        <v>7655</v>
       </c>
       <c r="AU34" s="11">
-        <v>5185</v>
+        <v>17070</v>
       </c>
       <c r="AV34" s="11">
-        <v>7655</v>
+        <v>16449</v>
       </c>
       <c r="AW34" s="11">
-        <v>17070</v>
+        <v>18339</v>
       </c>
       <c r="AX34" s="11">
-        <v>16449</v>
+        <v>27607</v>
       </c>
       <c r="AY34" s="11">
-        <v>18339</v>
+        <v>22747</v>
       </c>
       <c r="AZ34" s="11">
-        <v>27607</v>
+        <v>10046</v>
       </c>
       <c r="BA34" s="11">
-        <v>22747</v>
+        <v>7478</v>
       </c>
       <c r="BB34" s="11">
-        <v>10046</v>
+        <v>8521</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>62</v>
       </c>
@@ -4381,11 +4381,11 @@
       <c r="Y35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA35" s="13" t="s">
-        <v>58</v>
+      <c r="Z35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>0</v>
       </c>
       <c r="AB35" s="13">
         <v>0</v>
@@ -4402,11 +4402,11 @@
       <c r="AF35" s="13">
         <v>0</v>
       </c>
-      <c r="AG35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>0</v>
+      <c r="AG35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI35" s="13" t="s">
         <v>58</v>
@@ -4469,7 +4469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>59</v>
       </c>
@@ -4540,11 +4540,11 @@
       <c r="Y36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA36" s="11" t="s">
-        <v>58</v>
+      <c r="Z36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>0</v>
       </c>
       <c r="AB36" s="11">
         <v>0</v>
@@ -4561,11 +4561,11 @@
       <c r="AF36" s="11">
         <v>0</v>
       </c>
-      <c r="AG36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>0</v>
+      <c r="AG36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI36" s="11" t="s">
         <v>58</v>
@@ -4628,7 +4628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>64</v>
       </c>
@@ -4699,48 +4699,48 @@
       <c r="Y37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA37" s="13" t="s">
-        <v>58</v>
+      <c r="Z37" s="13">
+        <v>24924</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>18877</v>
       </c>
       <c r="AB37" s="13">
-        <v>24924</v>
+        <v>53638</v>
       </c>
       <c r="AC37" s="13">
-        <v>18877</v>
+        <v>32853</v>
       </c>
       <c r="AD37" s="13">
-        <v>53638</v>
+        <v>27396</v>
       </c>
       <c r="AE37" s="13">
-        <v>32853</v>
+        <v>35335</v>
       </c>
       <c r="AF37" s="13">
-        <v>27396</v>
+        <v>45928</v>
       </c>
       <c r="AG37" s="13">
-        <v>35335</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>45928</v>
+        <v>21544</v>
+      </c>
+      <c r="AH37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI37" s="13">
-        <v>21544</v>
-      </c>
-      <c r="AJ37" s="13" t="s">
-        <v>58</v>
+        <v>21711</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>23938</v>
       </c>
       <c r="AK37" s="13">
-        <v>21711</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>23938</v>
-      </c>
-      <c r="AM37" s="13">
         <v>20628</v>
       </c>
+      <c r="AL37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN37" s="13" t="s">
         <v>58</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>73</v>
       </c>
@@ -4857,94 +4857,94 @@
         <v>0</v>
       </c>
       <c r="Z38" s="15">
-        <v>0</v>
+        <v>24924</v>
       </c>
       <c r="AA38" s="15">
-        <v>0</v>
+        <v>18877</v>
       </c>
       <c r="AB38" s="15">
-        <v>24924</v>
+        <v>53638</v>
       </c>
       <c r="AC38" s="15">
-        <v>18877</v>
+        <v>32853</v>
       </c>
       <c r="AD38" s="15">
-        <v>53638</v>
+        <v>27396</v>
       </c>
       <c r="AE38" s="15">
-        <v>32853</v>
+        <v>35335</v>
       </c>
       <c r="AF38" s="15">
-        <v>27396</v>
+        <v>45928</v>
       </c>
       <c r="AG38" s="15">
-        <v>35335</v>
+        <v>21544</v>
       </c>
       <c r="AH38" s="15">
-        <v>45928</v>
+        <v>34453</v>
       </c>
       <c r="AI38" s="15">
-        <v>21544</v>
+        <v>21711</v>
       </c>
       <c r="AJ38" s="15">
-        <v>34453</v>
+        <v>23938</v>
       </c>
       <c r="AK38" s="15">
-        <v>21711</v>
+        <v>20628</v>
       </c>
       <c r="AL38" s="15">
-        <v>23938</v>
+        <v>13091</v>
       </c>
       <c r="AM38" s="15">
-        <v>20628</v>
+        <v>4917</v>
       </c>
       <c r="AN38" s="15">
-        <v>13091</v>
+        <v>13271</v>
       </c>
       <c r="AO38" s="15">
-        <v>4917</v>
+        <v>5861</v>
       </c>
       <c r="AP38" s="15">
-        <v>13271</v>
+        <v>6729</v>
       </c>
       <c r="AQ38" s="15">
-        <v>5861</v>
+        <v>19714</v>
       </c>
       <c r="AR38" s="15">
-        <v>6729</v>
+        <v>16071</v>
       </c>
       <c r="AS38" s="15">
-        <v>19714</v>
+        <v>5185</v>
       </c>
       <c r="AT38" s="15">
-        <v>16071</v>
+        <v>7655</v>
       </c>
       <c r="AU38" s="15">
-        <v>5185</v>
+        <v>17070</v>
       </c>
       <c r="AV38" s="15">
-        <v>7655</v>
+        <v>16449</v>
       </c>
       <c r="AW38" s="15">
-        <v>17070</v>
+        <v>18339</v>
       </c>
       <c r="AX38" s="15">
-        <v>16449</v>
+        <v>27607</v>
       </c>
       <c r="AY38" s="15">
-        <v>18339</v>
+        <v>22747</v>
       </c>
       <c r="AZ38" s="15">
-        <v>27607</v>
+        <v>10046</v>
       </c>
       <c r="BA38" s="15">
-        <v>22747</v>
+        <v>7478</v>
       </c>
       <c r="BB38" s="15">
-        <v>10046</v>
+        <v>8521</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>66</v>
       </c>
@@ -4979,11 +4979,11 @@
       <c r="AE39" s="17"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
+      <c r="AH39" s="17">
+        <v>34453</v>
+      </c>
       <c r="AI39" s="17"/>
-      <c r="AJ39" s="17">
-        <v>34453</v>
-      </c>
+      <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
       <c r="AL39" s="17"/>
       <c r="AM39" s="17"/>
@@ -5003,7 +5003,7 @@
       <c r="BA39" s="17"/>
       <c r="BB39" s="17"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>67</v>
       </c>
@@ -5072,11 +5072,11 @@
       <c r="Y40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z40" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>58</v>
+      <c r="Z40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
       </c>
       <c r="AB40" s="15">
         <v>0</v>
@@ -5096,13 +5096,13 @@
       <c r="AG40" s="15">
         <v>0</v>
       </c>
-      <c r="AH40" s="15">
-        <v>0</v>
-      </c>
+      <c r="AH40" s="15"/>
       <c r="AI40" s="15">
         <v>0</v>
       </c>
-      <c r="AJ40" s="15"/>
+      <c r="AJ40" s="15">
+        <v>0</v>
+      </c>
       <c r="AK40" s="15">
         <v>0</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>74</v>
       </c>
@@ -5193,11 +5193,11 @@
       <c r="AE41" s="17"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
+      <c r="AH41" s="17">
+        <v>0</v>
+      </c>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="17">
-        <v>0</v>
-      </c>
+      <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
       <c r="AL41" s="17"/>
       <c r="AM41" s="17"/>
@@ -5217,7 +5217,7 @@
       <c r="BA41" s="17"/>
       <c r="BB41" s="17"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>75</v>
       </c>
@@ -5286,11 +5286,11 @@
       <c r="Y42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>58</v>
+      <c r="Z42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>0</v>
       </c>
       <c r="AB42" s="15">
         <v>0</v>
@@ -5310,13 +5310,13 @@
       <c r="AG42" s="15">
         <v>0</v>
       </c>
-      <c r="AH42" s="15">
-        <v>0</v>
-      </c>
+      <c r="AH42" s="15"/>
       <c r="AI42" s="15">
         <v>0</v>
       </c>
-      <c r="AJ42" s="15"/>
+      <c r="AJ42" s="15">
+        <v>0</v>
+      </c>
       <c r="AK42" s="15">
         <v>0</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>68</v>
       </c>
@@ -5442,94 +5442,94 @@
         <v>0</v>
       </c>
       <c r="Z43" s="19">
-        <v>0</v>
+        <v>169110</v>
       </c>
       <c r="AA43" s="19">
-        <v>0</v>
+        <v>152982</v>
       </c>
       <c r="AB43" s="19">
-        <v>169110</v>
+        <v>150053</v>
       </c>
       <c r="AC43" s="19">
-        <v>152982</v>
+        <v>121067</v>
       </c>
       <c r="AD43" s="19">
-        <v>150053</v>
+        <v>121185</v>
       </c>
       <c r="AE43" s="19">
-        <v>121067</v>
+        <v>170065</v>
       </c>
       <c r="AF43" s="19">
-        <v>121185</v>
+        <v>154036</v>
       </c>
       <c r="AG43" s="19">
-        <v>170065</v>
+        <v>164805</v>
       </c>
       <c r="AH43" s="19">
-        <v>154036</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="19">
-        <v>164805</v>
+        <v>116322</v>
       </c>
       <c r="AJ43" s="19">
-        <v>0</v>
+        <v>96310</v>
       </c>
       <c r="AK43" s="19">
-        <v>116322</v>
+        <v>169052</v>
       </c>
       <c r="AL43" s="19">
-        <v>96310</v>
+        <v>155242</v>
       </c>
       <c r="AM43" s="19">
-        <v>169052</v>
+        <v>145326</v>
       </c>
       <c r="AN43" s="19">
-        <v>155242</v>
+        <v>134739</v>
       </c>
       <c r="AO43" s="19">
-        <v>145326</v>
+        <v>100613</v>
       </c>
       <c r="AP43" s="19">
-        <v>134739</v>
+        <v>91885</v>
       </c>
       <c r="AQ43" s="19">
-        <v>100613</v>
+        <v>132832</v>
       </c>
       <c r="AR43" s="19">
-        <v>91885</v>
+        <v>105790</v>
       </c>
       <c r="AS43" s="19">
-        <v>132832</v>
+        <v>124861</v>
       </c>
       <c r="AT43" s="19">
-        <v>105790</v>
+        <v>122756</v>
       </c>
       <c r="AU43" s="19">
-        <v>124861</v>
+        <v>137702</v>
       </c>
       <c r="AV43" s="19">
-        <v>122756</v>
+        <v>153479</v>
       </c>
       <c r="AW43" s="19">
-        <v>137702</v>
+        <v>153191</v>
       </c>
       <c r="AX43" s="19">
-        <v>153479</v>
+        <v>147638</v>
       </c>
       <c r="AY43" s="19">
-        <v>153191</v>
+        <v>158572</v>
       </c>
       <c r="AZ43" s="19">
-        <v>147638</v>
+        <v>145394</v>
       </c>
       <c r="BA43" s="19">
-        <v>158572</v>
+        <v>104861</v>
       </c>
       <c r="BB43" s="19">
-        <v>145394</v>
+        <v>108645</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>68</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5643,7 +5643,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5698,7 +5698,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5753,7 +5753,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>76</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5965,7 +5965,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>77</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -6093,95 +6093,95 @@
       <c r="Y51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA51" s="11" t="s">
-        <v>58</v>
+      <c r="Z51" s="11">
+        <v>342153</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>327434</v>
       </c>
       <c r="AB51" s="11">
-        <v>342153</v>
+        <v>217430</v>
       </c>
       <c r="AC51" s="11">
-        <v>327434</v>
+        <v>222052</v>
       </c>
       <c r="AD51" s="11">
-        <v>217430</v>
+        <v>221545</v>
       </c>
       <c r="AE51" s="11">
-        <v>222052</v>
+        <v>338741</v>
       </c>
       <c r="AF51" s="11">
-        <v>221545</v>
+        <v>269759</v>
       </c>
       <c r="AG51" s="11">
-        <v>338741</v>
+        <v>491223</v>
       </c>
       <c r="AH51" s="11">
-        <v>269759</v>
+        <v>546159</v>
       </c>
       <c r="AI51" s="11">
-        <v>491223</v>
+        <v>326604</v>
       </c>
       <c r="AJ51" s="11">
-        <v>546159</v>
+        <v>317905</v>
       </c>
       <c r="AK51" s="11">
-        <v>326604</v>
+        <v>724153</v>
       </c>
       <c r="AL51" s="11">
-        <v>317905</v>
+        <v>534381</v>
       </c>
       <c r="AM51" s="11">
-        <v>724153</v>
+        <v>534944</v>
       </c>
       <c r="AN51" s="11">
-        <v>534381</v>
+        <v>507724</v>
       </c>
       <c r="AO51" s="11">
-        <v>534944</v>
+        <v>395490</v>
       </c>
       <c r="AP51" s="11">
-        <v>507724</v>
+        <v>365465</v>
       </c>
       <c r="AQ51" s="11">
-        <v>395490</v>
+        <v>534970</v>
       </c>
       <c r="AR51" s="11">
-        <v>365465</v>
+        <v>404223</v>
       </c>
       <c r="AS51" s="11">
-        <v>534970</v>
+        <v>557009</v>
       </c>
       <c r="AT51" s="11">
-        <v>404223</v>
+        <v>571288</v>
       </c>
       <c r="AU51" s="11">
-        <v>557009</v>
+        <v>592945</v>
       </c>
       <c r="AV51" s="11">
-        <v>571288</v>
+        <v>654274</v>
       </c>
       <c r="AW51" s="11">
-        <v>592945</v>
+        <v>681464</v>
       </c>
       <c r="AX51" s="11">
-        <v>654274</v>
+        <v>578702</v>
       </c>
       <c r="AY51" s="11">
-        <v>681464</v>
+        <v>630371</v>
       </c>
       <c r="AZ51" s="11">
-        <v>578702</v>
+        <v>702100</v>
       </c>
       <c r="BA51" s="11">
-        <v>630371</v>
+        <v>523843</v>
       </c>
       <c r="BB51" s="11">
-        <v>702100</v>
+        <v>526594</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -6252,95 +6252,95 @@
       <c r="Y52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA52" s="13" t="s">
-        <v>58</v>
+      <c r="Z52" s="13">
+        <v>19303</v>
+      </c>
+      <c r="AA52" s="13">
+        <v>19838</v>
       </c>
       <c r="AB52" s="13">
-        <v>19303</v>
+        <v>21275</v>
       </c>
       <c r="AC52" s="13">
-        <v>19838</v>
+        <v>6030</v>
       </c>
       <c r="AD52" s="13">
-        <v>21275</v>
+        <v>18180</v>
       </c>
       <c r="AE52" s="13">
-        <v>6030</v>
+        <v>20242</v>
       </c>
       <c r="AF52" s="13">
-        <v>18180</v>
+        <v>23916</v>
       </c>
       <c r="AG52" s="13">
-        <v>20242</v>
+        <v>23993</v>
       </c>
       <c r="AH52" s="13">
-        <v>23916</v>
+        <v>30757</v>
       </c>
       <c r="AI52" s="13">
-        <v>23993</v>
+        <v>21122</v>
       </c>
       <c r="AJ52" s="13">
-        <v>30757</v>
+        <v>13493</v>
       </c>
       <c r="AK52" s="13">
-        <v>21122</v>
+        <v>28991</v>
       </c>
       <c r="AL52" s="13">
-        <v>13493</v>
+        <v>52812</v>
       </c>
       <c r="AM52" s="13">
-        <v>28991</v>
+        <v>49411</v>
       </c>
       <c r="AN52" s="13">
-        <v>52812</v>
+        <v>27599</v>
       </c>
       <c r="AO52" s="13">
-        <v>49411</v>
+        <v>14437</v>
       </c>
       <c r="AP52" s="13">
-        <v>27599</v>
+        <v>14261</v>
       </c>
       <c r="AQ52" s="13">
-        <v>14437</v>
+        <v>33617</v>
       </c>
       <c r="AR52" s="13">
-        <v>14261</v>
+        <v>40070</v>
       </c>
       <c r="AS52" s="13">
-        <v>33617</v>
+        <v>49142</v>
       </c>
       <c r="AT52" s="13">
-        <v>40070</v>
+        <v>31194</v>
       </c>
       <c r="AU52" s="13">
-        <v>49142</v>
+        <v>28831</v>
       </c>
       <c r="AV52" s="13">
-        <v>31194</v>
-      </c>
-      <c r="AW52" s="13">
-        <v>28831</v>
+        <v>37063</v>
+      </c>
+      <c r="AW52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX52" s="13">
-        <v>37063</v>
-      </c>
-      <c r="AY52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ52" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA52" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB52" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6410,94 @@
         <v>0</v>
       </c>
       <c r="Z53" s="15">
-        <v>0</v>
+        <v>361456</v>
       </c>
       <c r="AA53" s="15">
-        <v>0</v>
+        <v>347272</v>
       </c>
       <c r="AB53" s="15">
-        <v>361456</v>
+        <v>238705</v>
       </c>
       <c r="AC53" s="15">
-        <v>347272</v>
+        <v>228082</v>
       </c>
       <c r="AD53" s="15">
-        <v>238705</v>
+        <v>239725</v>
       </c>
       <c r="AE53" s="15">
-        <v>228082</v>
+        <v>358983</v>
       </c>
       <c r="AF53" s="15">
-        <v>239725</v>
+        <v>293675</v>
       </c>
       <c r="AG53" s="15">
-        <v>358983</v>
+        <v>515216</v>
       </c>
       <c r="AH53" s="15">
-        <v>293675</v>
+        <v>576916</v>
       </c>
       <c r="AI53" s="15">
-        <v>515216</v>
+        <v>347726</v>
       </c>
       <c r="AJ53" s="15">
-        <v>576916</v>
+        <v>331398</v>
       </c>
       <c r="AK53" s="15">
-        <v>347726</v>
+        <v>753144</v>
       </c>
       <c r="AL53" s="15">
-        <v>331398</v>
+        <v>587193</v>
       </c>
       <c r="AM53" s="15">
-        <v>753144</v>
+        <v>584355</v>
       </c>
       <c r="AN53" s="15">
-        <v>587193</v>
+        <v>535323</v>
       </c>
       <c r="AO53" s="15">
-        <v>584355</v>
+        <v>409927</v>
       </c>
       <c r="AP53" s="15">
-        <v>535323</v>
+        <v>379726</v>
       </c>
       <c r="AQ53" s="15">
-        <v>409927</v>
+        <v>568587</v>
       </c>
       <c r="AR53" s="15">
-        <v>379726</v>
+        <v>444293</v>
       </c>
       <c r="AS53" s="15">
-        <v>568587</v>
+        <v>606151</v>
       </c>
       <c r="AT53" s="15">
-        <v>444293</v>
+        <v>602482</v>
       </c>
       <c r="AU53" s="15">
-        <v>606151</v>
+        <v>621776</v>
       </c>
       <c r="AV53" s="15">
-        <v>602482</v>
+        <v>691337</v>
       </c>
       <c r="AW53" s="15">
-        <v>621776</v>
+        <v>681464</v>
       </c>
       <c r="AX53" s="15">
-        <v>691337</v>
+        <v>578702</v>
       </c>
       <c r="AY53" s="15">
-        <v>681464</v>
+        <v>630371</v>
       </c>
       <c r="AZ53" s="15">
-        <v>578702</v>
+        <v>702100</v>
       </c>
       <c r="BA53" s="15">
-        <v>630371</v>
+        <v>523843</v>
       </c>
       <c r="BB53" s="15">
-        <v>702100</v>
+        <v>526594</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>78</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6661,59 +6661,59 @@
       <c r="AK55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>58</v>
+      <c r="AL55" s="11">
+        <v>79565</v>
+      </c>
+      <c r="AM55" s="11">
+        <v>28589</v>
       </c>
       <c r="AN55" s="11">
-        <v>79565</v>
+        <v>77617</v>
       </c>
       <c r="AO55" s="11">
-        <v>28589</v>
+        <v>39225</v>
       </c>
       <c r="AP55" s="11">
-        <v>77617</v>
+        <v>34058</v>
       </c>
       <c r="AQ55" s="11">
-        <v>39225</v>
+        <v>100476</v>
       </c>
       <c r="AR55" s="11">
-        <v>34058</v>
+        <v>90343</v>
       </c>
       <c r="AS55" s="11">
-        <v>100476</v>
+        <v>29208</v>
       </c>
       <c r="AT55" s="11">
-        <v>90343</v>
+        <v>41328</v>
       </c>
       <c r="AU55" s="11">
-        <v>29208</v>
+        <v>106887</v>
       </c>
       <c r="AV55" s="11">
-        <v>41328</v>
+        <v>103874</v>
       </c>
       <c r="AW55" s="11">
-        <v>106887</v>
+        <v>117309</v>
       </c>
       <c r="AX55" s="11">
-        <v>103874</v>
+        <v>182944</v>
       </c>
       <c r="AY55" s="11">
-        <v>117309</v>
+        <v>142244</v>
       </c>
       <c r="AZ55" s="11">
-        <v>182944</v>
+        <v>61114</v>
       </c>
       <c r="BA55" s="11">
-        <v>142244</v>
+        <v>45656</v>
       </c>
       <c r="BB55" s="11">
-        <v>61114</v>
+        <v>48368</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>62</v>
       </c>
@@ -6784,11 +6784,11 @@
       <c r="Y56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA56" s="13" t="s">
-        <v>58</v>
+      <c r="Z56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="13">
+        <v>0</v>
       </c>
       <c r="AB56" s="13">
         <v>0</v>
@@ -6820,11 +6820,11 @@
       <c r="AK56" s="13">
         <v>0</v>
       </c>
-      <c r="AL56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="13">
-        <v>0</v>
+      <c r="AL56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN56" s="13" t="s">
         <v>58</v>
@@ -6872,7 +6872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>59</v>
       </c>
@@ -6943,11 +6943,11 @@
       <c r="Y57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA57" s="11" t="s">
-        <v>58</v>
+      <c r="Z57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0</v>
       </c>
       <c r="AB57" s="11">
         <v>0</v>
@@ -6979,11 +6979,11 @@
       <c r="AK57" s="11">
         <v>0</v>
       </c>
-      <c r="AL57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>0</v>
+      <c r="AL57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN57" s="11" t="s">
         <v>58</v>
@@ -7031,7 +7031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>64</v>
       </c>
@@ -7102,48 +7102,48 @@
       <c r="Y58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA58" s="13" t="s">
-        <v>58</v>
+      <c r="Z58" s="13">
+        <v>78788</v>
+      </c>
+      <c r="AA58" s="13">
+        <v>56503</v>
       </c>
       <c r="AB58" s="13">
-        <v>78788</v>
+        <v>136759</v>
       </c>
       <c r="AC58" s="13">
-        <v>56503</v>
+        <v>91590</v>
       </c>
       <c r="AD58" s="13">
-        <v>136759</v>
+        <v>84827</v>
       </c>
       <c r="AE58" s="13">
-        <v>91590</v>
+        <v>147508</v>
       </c>
       <c r="AF58" s="13">
-        <v>84827</v>
+        <v>193732</v>
       </c>
       <c r="AG58" s="13">
-        <v>147508</v>
+        <v>98918</v>
       </c>
       <c r="AH58" s="13">
-        <v>193732</v>
+        <v>160643</v>
       </c>
       <c r="AI58" s="13">
-        <v>98918</v>
+        <v>101696</v>
       </c>
       <c r="AJ58" s="13">
-        <v>160643</v>
+        <v>123442</v>
       </c>
       <c r="AK58" s="13">
-        <v>101696</v>
-      </c>
-      <c r="AL58" s="13">
-        <v>123442</v>
-      </c>
-      <c r="AM58" s="13">
         <v>138250</v>
       </c>
+      <c r="AL58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN58" s="13" t="s">
         <v>58</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>73</v>
       </c>
@@ -7260,94 +7260,94 @@
         <v>0</v>
       </c>
       <c r="Z59" s="15">
-        <v>0</v>
+        <v>78788</v>
       </c>
       <c r="AA59" s="15">
-        <v>0</v>
+        <v>56503</v>
       </c>
       <c r="AB59" s="15">
-        <v>78788</v>
+        <v>136759</v>
       </c>
       <c r="AC59" s="15">
-        <v>56503</v>
+        <v>91590</v>
       </c>
       <c r="AD59" s="15">
-        <v>136759</v>
+        <v>84827</v>
       </c>
       <c r="AE59" s="15">
-        <v>91590</v>
+        <v>147508</v>
       </c>
       <c r="AF59" s="15">
-        <v>84827</v>
+        <v>193732</v>
       </c>
       <c r="AG59" s="15">
-        <v>147508</v>
+        <v>98918</v>
       </c>
       <c r="AH59" s="15">
-        <v>193732</v>
+        <v>160643</v>
       </c>
       <c r="AI59" s="15">
-        <v>98918</v>
+        <v>101696</v>
       </c>
       <c r="AJ59" s="15">
-        <v>160643</v>
+        <v>123442</v>
       </c>
       <c r="AK59" s="15">
-        <v>101696</v>
+        <v>138250</v>
       </c>
       <c r="AL59" s="15">
-        <v>123442</v>
+        <v>79565</v>
       </c>
       <c r="AM59" s="15">
-        <v>138250</v>
+        <v>28589</v>
       </c>
       <c r="AN59" s="15">
-        <v>79565</v>
+        <v>77617</v>
       </c>
       <c r="AO59" s="15">
-        <v>28589</v>
+        <v>39225</v>
       </c>
       <c r="AP59" s="15">
-        <v>77617</v>
+        <v>34058</v>
       </c>
       <c r="AQ59" s="15">
-        <v>39225</v>
+        <v>100476</v>
       </c>
       <c r="AR59" s="15">
-        <v>34058</v>
+        <v>90343</v>
       </c>
       <c r="AS59" s="15">
-        <v>100476</v>
+        <v>29208</v>
       </c>
       <c r="AT59" s="15">
-        <v>90343</v>
+        <v>41328</v>
       </c>
       <c r="AU59" s="15">
-        <v>29208</v>
+        <v>106887</v>
       </c>
       <c r="AV59" s="15">
-        <v>41328</v>
+        <v>103874</v>
       </c>
       <c r="AW59" s="15">
-        <v>106887</v>
+        <v>117309</v>
       </c>
       <c r="AX59" s="15">
-        <v>103874</v>
+        <v>182944</v>
       </c>
       <c r="AY59" s="15">
-        <v>117309</v>
+        <v>142244</v>
       </c>
       <c r="AZ59" s="15">
-        <v>182944</v>
+        <v>61114</v>
       </c>
       <c r="BA59" s="15">
-        <v>142244</v>
+        <v>45656</v>
       </c>
       <c r="BB59" s="15">
-        <v>61114</v>
+        <v>48368</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>79</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="BA60" s="17"/>
       <c r="BB60" s="17"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>67</v>
       </c>
@@ -7475,11 +7475,11 @@
       <c r="Y61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA61" s="15" t="s">
-        <v>58</v>
+      <c r="Z61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="15">
+        <v>0</v>
       </c>
       <c r="AB61" s="15">
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>80</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="BA62" s="17"/>
       <c r="BB62" s="17"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>75</v>
       </c>
@@ -7691,11 +7691,11 @@
       <c r="Y63" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA63" s="15" t="s">
-        <v>58</v>
+      <c r="Z63" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="15">
+        <v>0</v>
       </c>
       <c r="AB63" s="15">
         <v>0</v>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>81</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>82</v>
       </c>
@@ -7907,11 +7907,11 @@
       <c r="Y65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA65" s="11" t="s">
-        <v>58</v>
+      <c r="Z65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="11">
+        <v>0</v>
       </c>
       <c r="AB65" s="11">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>68</v>
       </c>
@@ -8065,94 +8065,94 @@
         <v>0</v>
       </c>
       <c r="Z66" s="19">
-        <v>0</v>
+        <v>440244</v>
       </c>
       <c r="AA66" s="19">
-        <v>0</v>
+        <v>403775</v>
       </c>
       <c r="AB66" s="19">
-        <v>440244</v>
+        <v>375464</v>
       </c>
       <c r="AC66" s="19">
-        <v>403775</v>
+        <v>319672</v>
       </c>
       <c r="AD66" s="19">
-        <v>375464</v>
+        <v>324552</v>
       </c>
       <c r="AE66" s="19">
-        <v>319672</v>
+        <v>506491</v>
       </c>
       <c r="AF66" s="19">
-        <v>324552</v>
+        <v>487407</v>
       </c>
       <c r="AG66" s="19">
-        <v>506491</v>
+        <v>614134</v>
       </c>
       <c r="AH66" s="19">
-        <v>487407</v>
+        <v>737559</v>
       </c>
       <c r="AI66" s="19">
-        <v>614134</v>
+        <v>449422</v>
       </c>
       <c r="AJ66" s="19">
-        <v>737559</v>
+        <v>454840</v>
       </c>
       <c r="AK66" s="19">
-        <v>449422</v>
+        <v>891394</v>
       </c>
       <c r="AL66" s="19">
-        <v>454840</v>
+        <v>666758</v>
       </c>
       <c r="AM66" s="19">
-        <v>891394</v>
+        <v>612944</v>
       </c>
       <c r="AN66" s="19">
-        <v>666758</v>
+        <v>612940</v>
       </c>
       <c r="AO66" s="19">
-        <v>612944</v>
+        <v>449152</v>
       </c>
       <c r="AP66" s="19">
-        <v>612940</v>
+        <v>413784</v>
       </c>
       <c r="AQ66" s="19">
-        <v>449152</v>
+        <v>669063</v>
       </c>
       <c r="AR66" s="19">
-        <v>413784</v>
+        <v>534636</v>
       </c>
       <c r="AS66" s="19">
-        <v>669063</v>
+        <v>635359</v>
       </c>
       <c r="AT66" s="19">
-        <v>534636</v>
+        <v>643810</v>
       </c>
       <c r="AU66" s="19">
-        <v>635359</v>
+        <v>728663</v>
       </c>
       <c r="AV66" s="19">
-        <v>643810</v>
+        <v>795211</v>
       </c>
       <c r="AW66" s="19">
-        <v>728663</v>
+        <v>798773</v>
       </c>
       <c r="AX66" s="19">
-        <v>795211</v>
+        <v>761646</v>
       </c>
       <c r="AY66" s="19">
-        <v>798773</v>
+        <v>772615</v>
       </c>
       <c r="AZ66" s="19">
-        <v>761646</v>
+        <v>763214</v>
       </c>
       <c r="BA66" s="19">
-        <v>772615</v>
+        <v>569499</v>
       </c>
       <c r="BB66" s="19">
-        <v>763214</v>
+        <v>574962</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8207,7 +8207,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8262,7 +8262,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8317,7 +8317,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>83</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -8529,7 +8529,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>84</v>
       </c>
@@ -8586,7 +8586,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
@@ -8657,95 +8657,95 @@
       <c r="Y73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA73" s="11" t="s">
-        <v>58</v>
+      <c r="Z73" s="11">
+        <v>2608987</v>
+      </c>
+      <c r="AA73" s="11">
+        <v>2708080</v>
       </c>
       <c r="AB73" s="11">
-        <v>2608987</v>
+        <v>2574507</v>
       </c>
       <c r="AC73" s="11">
-        <v>2708080</v>
+        <v>2629390</v>
       </c>
       <c r="AD73" s="11">
-        <v>2574507</v>
+        <v>2646672</v>
       </c>
       <c r="AE73" s="11">
-        <v>2629390</v>
+        <v>2740268</v>
       </c>
       <c r="AF73" s="11">
-        <v>2646672</v>
+        <v>2810868</v>
       </c>
       <c r="AG73" s="11">
-        <v>2740268</v>
+        <v>3742651</v>
       </c>
       <c r="AH73" s="11">
-        <v>2810868</v>
+        <v>3843456</v>
       </c>
       <c r="AI73" s="11">
-        <v>3742651</v>
+        <v>3816493</v>
       </c>
       <c r="AJ73" s="11">
-        <v>3843456</v>
+        <v>4780886</v>
       </c>
       <c r="AK73" s="11">
-        <v>3816493</v>
+        <v>5188569</v>
       </c>
       <c r="AL73" s="11">
-        <v>4780886</v>
+        <v>4288910</v>
       </c>
       <c r="AM73" s="11">
-        <v>5188569</v>
+        <v>4292119</v>
       </c>
       <c r="AN73" s="11">
-        <v>4288910</v>
+        <v>4528075</v>
       </c>
       <c r="AO73" s="11">
-        <v>4292119</v>
+        <v>4410112</v>
       </c>
       <c r="AP73" s="11">
-        <v>4528075</v>
+        <v>4620583</v>
       </c>
       <c r="AQ73" s="11">
-        <v>4410112</v>
+        <v>5110381</v>
       </c>
       <c r="AR73" s="11">
-        <v>4620583</v>
+        <v>5193666</v>
       </c>
       <c r="AS73" s="11">
-        <v>5110381</v>
+        <v>5178492</v>
       </c>
       <c r="AT73" s="11">
-        <v>5193666</v>
+        <v>5338392</v>
       </c>
       <c r="AU73" s="11">
-        <v>5178492</v>
+        <v>5253903</v>
       </c>
       <c r="AV73" s="11">
-        <v>5338392</v>
+        <v>5117233</v>
       </c>
       <c r="AW73" s="11">
-        <v>5253903</v>
+        <v>5053422</v>
       </c>
       <c r="AX73" s="11">
-        <v>5117233</v>
+        <v>4821271</v>
       </c>
       <c r="AY73" s="11">
-        <v>5053422</v>
+        <v>4641053</v>
       </c>
       <c r="AZ73" s="11">
-        <v>4821271</v>
+        <v>5187369</v>
       </c>
       <c r="BA73" s="11">
-        <v>4641053</v>
+        <v>5379204</v>
       </c>
       <c r="BB73" s="11">
-        <v>5187369</v>
+        <v>5259418</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>59</v>
       </c>
@@ -8816,81 +8816,81 @@
       <c r="Y74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA74" s="13" t="s">
-        <v>58</v>
+      <c r="Z74" s="13">
+        <v>1480064</v>
+      </c>
+      <c r="AA74" s="13">
+        <v>1503448</v>
       </c>
       <c r="AB74" s="13">
-        <v>1480064</v>
+        <v>1778846</v>
       </c>
       <c r="AC74" s="13">
-        <v>1503448</v>
+        <v>1602019</v>
       </c>
       <c r="AD74" s="13">
-        <v>1778846</v>
+        <v>1803214</v>
       </c>
       <c r="AE74" s="13">
-        <v>1602019</v>
+        <v>1821306</v>
       </c>
       <c r="AF74" s="13">
-        <v>1803214</v>
+        <v>1970341</v>
       </c>
       <c r="AG74" s="13">
-        <v>1821306</v>
+        <v>1997586</v>
       </c>
       <c r="AH74" s="13">
-        <v>1970341</v>
+        <v>2537288</v>
       </c>
       <c r="AI74" s="13">
-        <v>1997586</v>
+        <v>2338056</v>
       </c>
       <c r="AJ74" s="13">
-        <v>2537288</v>
+        <v>2295899</v>
       </c>
       <c r="AK74" s="13">
-        <v>2338056</v>
+        <v>3273230</v>
       </c>
       <c r="AL74" s="13">
-        <v>2295899</v>
+        <v>3008374</v>
       </c>
       <c r="AM74" s="13">
-        <v>3273230</v>
+        <v>3132235</v>
       </c>
       <c r="AN74" s="13">
-        <v>3008374</v>
+        <v>2954925</v>
       </c>
       <c r="AO74" s="13">
-        <v>3132235</v>
+        <v>2845290</v>
       </c>
       <c r="AP74" s="13">
-        <v>2954925</v>
+        <v>2352912</v>
       </c>
       <c r="AQ74" s="13">
-        <v>2845290</v>
+        <v>3985418</v>
       </c>
       <c r="AR74" s="13">
-        <v>2352912</v>
+        <v>3370342</v>
       </c>
       <c r="AS74" s="13">
-        <v>3985418</v>
+        <v>4056629</v>
       </c>
       <c r="AT74" s="13">
-        <v>3370342</v>
+        <v>3857779</v>
       </c>
       <c r="AU74" s="13">
-        <v>4056629</v>
+        <v>3708644</v>
       </c>
       <c r="AV74" s="13">
-        <v>3857779</v>
-      </c>
-      <c r="AW74" s="13">
-        <v>3708644</v>
-      </c>
-      <c r="AX74" s="13">
         <v>4040445</v>
       </c>
+      <c r="AW74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY74" s="13" t="s">
         <v>58</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>86</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
@@ -9068,59 +9068,59 @@
       <c r="AK76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM76" s="11" t="s">
-        <v>58</v>
+      <c r="AL76" s="11">
+        <v>6077840</v>
+      </c>
+      <c r="AM76" s="11">
+        <v>5814318</v>
       </c>
       <c r="AN76" s="11">
-        <v>6077840</v>
+        <v>5848617</v>
       </c>
       <c r="AO76" s="11">
-        <v>5814318</v>
+        <v>6692544</v>
       </c>
       <c r="AP76" s="11">
-        <v>5848617</v>
+        <v>5061376</v>
       </c>
       <c r="AQ76" s="11">
-        <v>6692544</v>
+        <v>5096683</v>
       </c>
       <c r="AR76" s="11">
-        <v>5061376</v>
+        <v>5621492</v>
       </c>
       <c r="AS76" s="11">
-        <v>5096683</v>
+        <v>5633173</v>
       </c>
       <c r="AT76" s="11">
-        <v>5621492</v>
+        <v>5398824</v>
       </c>
       <c r="AU76" s="11">
-        <v>5633173</v>
+        <v>6261687</v>
       </c>
       <c r="AV76" s="11">
-        <v>5398824</v>
+        <v>6314913</v>
       </c>
       <c r="AW76" s="11">
-        <v>6261687</v>
+        <v>6396696</v>
       </c>
       <c r="AX76" s="11">
-        <v>6314913</v>
+        <v>6626725</v>
       </c>
       <c r="AY76" s="11">
-        <v>6396696</v>
+        <v>6253308</v>
       </c>
       <c r="AZ76" s="11">
-        <v>6626725</v>
+        <v>6083416</v>
       </c>
       <c r="BA76" s="11">
-        <v>6253308</v>
+        <v>6105376</v>
       </c>
       <c r="BB76" s="11">
-        <v>6083416</v>
+        <v>5676329</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>64</v>
       </c>
@@ -9191,47 +9191,47 @@
       <c r="Y77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA77" s="13" t="s">
-        <v>58</v>
+      <c r="Z77" s="13">
+        <v>3161130</v>
+      </c>
+      <c r="AA77" s="13">
+        <v>2993219</v>
       </c>
       <c r="AB77" s="13">
-        <v>3161130</v>
+        <v>2549666</v>
       </c>
       <c r="AC77" s="13">
-        <v>2993219</v>
+        <v>2787873</v>
       </c>
       <c r="AD77" s="13">
-        <v>2549666</v>
+        <v>3096328</v>
       </c>
       <c r="AE77" s="13">
-        <v>2787873</v>
+        <v>4174558</v>
       </c>
       <c r="AF77" s="13">
-        <v>3096328</v>
+        <v>4218168</v>
       </c>
       <c r="AG77" s="13">
-        <v>4174558</v>
+        <v>4591441</v>
       </c>
       <c r="AH77" s="13">
-        <v>4218168</v>
+        <v>4662671</v>
       </c>
       <c r="AI77" s="13">
-        <v>4591441</v>
+        <v>4684077</v>
       </c>
       <c r="AJ77" s="13">
-        <v>4662671</v>
+        <v>5156738</v>
       </c>
       <c r="AK77" s="13">
-        <v>4684077</v>
-      </c>
-      <c r="AL77" s="13">
-        <v>5156738</v>
-      </c>
-      <c r="AM77" s="13">
         <v>6702055</v>
+      </c>
+      <c r="AL77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN77" s="13" t="s">
         <v>58</v>

--- a/database/industries/siman/seshargh/product/monthly_seprated.xlsx
+++ b/database/industries/siman/seshargh/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3302,98 +3302,98 @@
       <c r="W11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>58</v>
+      <c r="X11" s="13" t="n">
+        <v>165203</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>165203</v>
+        <v>148460</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>148460</v>
+        <v>127240</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>127240</v>
+        <v>131094</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>131094</v>
+        <v>102957</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>102957</v>
+        <v>170779</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>170779</v>
+        <v>128789</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>128789</v>
+        <v>156144</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>156144</v>
+        <v>175539</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>175539</v>
+        <v>120030</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>120030</v>
+        <v>84260</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>84260</v>
+        <v>162740</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>162740</v>
+        <v>149549</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>149549</v>
+        <v>141959</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>141959</v>
+        <v>119514</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>119514</v>
+        <v>97342</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>97342</v>
+        <v>86630</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>86630</v>
+        <v>115248</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>115248</v>
+        <v>87850</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>87850</v>
+        <v>110088</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>110088</v>
+        <v>110163</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>110163</v>
+        <v>139888</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>139888</v>
+        <v>139500</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>139500</v>
+        <v>163852</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>163852</v>
+        <v>150786</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>150786</v>
+        <v>174698</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>174698</v>
+        <v>143543</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>143543</v>
+        <v>103887</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>103887</v>
+        <v>114554</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>114554</v>
+        <v>161290</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>161290</v>
+        <v>122283</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,86 +3461,86 @@
       <c r="W12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="16" t="s">
-        <v>58</v>
+      <c r="X12" s="16" t="n">
+        <v>12944</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>12944</v>
+        <v>12497</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>12497</v>
+        <v>12192</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>12192</v>
+        <v>2433</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>2433</v>
+        <v>9578</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>9578</v>
+        <v>10765</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>10765</v>
+        <v>12106</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>12106</v>
+        <v>13057</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>13057</v>
+        <v>11399</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>11399</v>
+        <v>11191</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>11191</v>
+        <v>10594</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>10594</v>
+        <v>11318</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>11318</v>
+        <v>11101</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>11101</v>
+        <v>12308</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>12308</v>
+        <v>11677</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>11677</v>
+        <v>7107</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>7107</v>
+        <v>4267</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>4267</v>
+        <v>4700</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>4700</v>
+        <v>11870</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>11870</v>
+        <v>11533</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>11533</v>
+        <v>11027</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>11027</v>
+        <v>7322</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>7322</v>
-      </c>
-      <c r="AU12" s="16" t="n">
         <v>7191</v>
       </c>
-      <c r="AV12" s="16" t="s">
-        <v>58</v>
+      <c r="AU12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX12" s="16" t="n">
-        <v>0</v>
+      <c r="AX12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY12" s="16" t="s">
         <v>58</v>
@@ -3619,97 +3619,97 @@
         <v>0</v>
       </c>
       <c r="X13" s="18" t="n">
-        <v>0</v>
+        <v>178147</v>
       </c>
       <c r="Y13" s="18" t="n">
-        <v>178147</v>
+        <v>160957</v>
       </c>
       <c r="Z13" s="18" t="n">
-        <v>160957</v>
+        <v>139432</v>
       </c>
       <c r="AA13" s="18" t="n">
-        <v>139432</v>
+        <v>133527</v>
       </c>
       <c r="AB13" s="18" t="n">
-        <v>133527</v>
+        <v>112535</v>
       </c>
       <c r="AC13" s="18" t="n">
-        <v>112535</v>
+        <v>181544</v>
       </c>
       <c r="AD13" s="18" t="n">
-        <v>181544</v>
+        <v>140895</v>
       </c>
       <c r="AE13" s="18" t="n">
-        <v>140895</v>
+        <v>169201</v>
       </c>
       <c r="AF13" s="18" t="n">
-        <v>169201</v>
+        <v>186938</v>
       </c>
       <c r="AG13" s="18" t="n">
-        <v>186938</v>
+        <v>131221</v>
       </c>
       <c r="AH13" s="18" t="n">
-        <v>131221</v>
+        <v>94854</v>
       </c>
       <c r="AI13" s="18" t="n">
-        <v>94854</v>
+        <v>174058</v>
       </c>
       <c r="AJ13" s="18" t="n">
-        <v>174058</v>
+        <v>160650</v>
       </c>
       <c r="AK13" s="18" t="n">
-        <v>160650</v>
+        <v>154267</v>
       </c>
       <c r="AL13" s="18" t="n">
-        <v>154267</v>
+        <v>131191</v>
       </c>
       <c r="AM13" s="18" t="n">
-        <v>131191</v>
+        <v>104449</v>
       </c>
       <c r="AN13" s="18" t="n">
-        <v>104449</v>
+        <v>90897</v>
       </c>
       <c r="AO13" s="18" t="n">
-        <v>90897</v>
+        <v>119948</v>
       </c>
       <c r="AP13" s="18" t="n">
-        <v>119948</v>
+        <v>99720</v>
       </c>
       <c r="AQ13" s="18" t="n">
-        <v>99720</v>
+        <v>121621</v>
       </c>
       <c r="AR13" s="18" t="n">
-        <v>121621</v>
+        <v>121190</v>
       </c>
       <c r="AS13" s="18" t="n">
-        <v>121190</v>
+        <v>147210</v>
       </c>
       <c r="AT13" s="18" t="n">
-        <v>147210</v>
+        <v>146691</v>
       </c>
       <c r="AU13" s="18" t="n">
-        <v>146691</v>
+        <v>163852</v>
       </c>
       <c r="AV13" s="18" t="n">
-        <v>163852</v>
+        <v>150786</v>
       </c>
       <c r="AW13" s="18" t="n">
-        <v>150786</v>
+        <v>174698</v>
       </c>
       <c r="AX13" s="18" t="n">
-        <v>174698</v>
+        <v>143543</v>
       </c>
       <c r="AY13" s="18" t="n">
-        <v>143543</v>
+        <v>103887</v>
       </c>
       <c r="AZ13" s="18" t="n">
-        <v>103887</v>
+        <v>114554</v>
       </c>
       <c r="BA13" s="18" t="n">
-        <v>114554</v>
+        <v>161290</v>
       </c>
       <c r="BB13" s="18" t="n">
-        <v>161290</v>
+        <v>122283</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,20 +3873,20 @@
       <c r="AJ15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK15" s="13" t="s">
-        <v>58</v>
+      <c r="AK15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AL15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" s="13" t="n">
-        <v>0</v>
+      <c r="AM15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="13" t="s">
-        <v>58</v>
+      <c r="AO15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP15" s="13" t="n">
         <v>0</v>
@@ -3993,8 +3993,8 @@
       <c r="W16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="16" t="s">
-        <v>58</v>
+      <c r="X16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y16" s="16" t="n">
         <v>0</v>
@@ -4014,8 +4014,8 @@
       <c r="AD16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
+      <c r="AE16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF16" s="16" t="s">
         <v>58</v>
@@ -4152,8 +4152,8 @@
       <c r="W17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="13" t="s">
-        <v>58</v>
+      <c r="X17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" s="13" t="n">
         <v>0</v>
@@ -4173,8 +4173,8 @@
       <c r="AD17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" s="13" t="n">
-        <v>0</v>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>58</v>
@@ -4311,8 +4311,8 @@
       <c r="W18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="16" t="s">
-        <v>58</v>
+      <c r="X18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y18" s="16" t="n">
         <v>0</v>
@@ -4332,8 +4332,8 @@
       <c r="AD18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" s="16" t="n">
-        <v>0</v>
+      <c r="AE18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF18" s="16" t="s">
         <v>58</v>
@@ -4492,11 +4492,11 @@
       <c r="AE19" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AF19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="18" t="s">
-        <v>58</v>
+      <c r="AF19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AH19" s="18" t="n">
         <v>0</v>
@@ -4595,10 +4595,10 @@
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF20" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
       <c r="AI20" s="20"/>
       <c r="AJ20" s="20"/>
@@ -4684,8 +4684,8 @@
       <c r="W21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="18" t="s">
-        <v>58</v>
+      <c r="X21" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="Y21" s="18" t="n">
         <v>0</v>
@@ -4708,10 +4708,10 @@
       <c r="AE21" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AF21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="AH21" s="18" t="n">
         <v>0</v>
       </c>
@@ -4840,97 +4840,97 @@
         <v>0</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>0</v>
+        <v>178147</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>178147</v>
+        <v>160957</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>160957</v>
+        <v>139432</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>139432</v>
+        <v>133527</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>133527</v>
+        <v>112535</v>
       </c>
       <c r="AC22" s="22" t="n">
-        <v>112535</v>
+        <v>181544</v>
       </c>
       <c r="AD22" s="22" t="n">
-        <v>181544</v>
+        <v>140895</v>
       </c>
       <c r="AE22" s="22" t="n">
-        <v>140895</v>
+        <v>169201</v>
       </c>
       <c r="AF22" s="22" t="n">
-        <v>169201</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="22" t="n">
-        <v>0</v>
+        <v>131221</v>
       </c>
       <c r="AH22" s="22" t="n">
-        <v>131221</v>
+        <v>94854</v>
       </c>
       <c r="AI22" s="22" t="n">
-        <v>94854</v>
+        <v>174058</v>
       </c>
       <c r="AJ22" s="22" t="n">
-        <v>174058</v>
+        <v>160650</v>
       </c>
       <c r="AK22" s="22" t="n">
-        <v>160650</v>
+        <v>154267</v>
       </c>
       <c r="AL22" s="22" t="n">
-        <v>154267</v>
+        <v>131191</v>
       </c>
       <c r="AM22" s="22" t="n">
-        <v>131191</v>
+        <v>104449</v>
       </c>
       <c r="AN22" s="22" t="n">
-        <v>104449</v>
+        <v>90897</v>
       </c>
       <c r="AO22" s="22" t="n">
-        <v>90897</v>
+        <v>119948</v>
       </c>
       <c r="AP22" s="22" t="n">
-        <v>119948</v>
+        <v>99720</v>
       </c>
       <c r="AQ22" s="22" t="n">
-        <v>99720</v>
+        <v>121621</v>
       </c>
       <c r="AR22" s="22" t="n">
-        <v>121621</v>
+        <v>121190</v>
       </c>
       <c r="AS22" s="22" t="n">
-        <v>121190</v>
+        <v>147210</v>
       </c>
       <c r="AT22" s="22" t="n">
-        <v>147210</v>
+        <v>146691</v>
       </c>
       <c r="AU22" s="22" t="n">
-        <v>146691</v>
+        <v>163852</v>
       </c>
       <c r="AV22" s="22" t="n">
-        <v>163852</v>
+        <v>150786</v>
       </c>
       <c r="AW22" s="22" t="n">
-        <v>150786</v>
+        <v>174698</v>
       </c>
       <c r="AX22" s="22" t="n">
-        <v>174698</v>
+        <v>143543</v>
       </c>
       <c r="AY22" s="22" t="n">
-        <v>143543</v>
+        <v>103887</v>
       </c>
       <c r="AZ22" s="22" t="n">
-        <v>103887</v>
+        <v>114554</v>
       </c>
       <c r="BA22" s="22" t="n">
-        <v>114554</v>
+        <v>161290</v>
       </c>
       <c r="BB22" s="22" t="n">
-        <v>161290</v>
+        <v>122283</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,98 +5491,98 @@
       <c r="W30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X30" s="13" t="s">
-        <v>58</v>
+      <c r="X30" s="13" t="n">
+        <v>131144</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>131144</v>
+        <v>120910</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>120910</v>
+        <v>84455</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>84455</v>
+        <v>84450</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>84450</v>
+        <v>83707</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>83707</v>
+        <v>123616</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>123616</v>
+        <v>95970</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>95970</v>
+        <v>131250</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>131250</v>
+        <v>142101</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>142101</v>
+        <v>85577</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>85577</v>
+        <v>66495</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>66495</v>
+        <v>139567</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>139567</v>
+        <v>124596</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>124596</v>
+        <v>124634</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>124634</v>
+        <v>112128</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>112128</v>
+        <v>89678</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>89678</v>
+        <v>79095</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>79095</v>
+        <v>104683</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>104683</v>
+        <v>77830</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>77830</v>
+        <v>107562</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>107562</v>
+        <v>107015</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>107015</v>
+        <v>112858</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>112858</v>
+        <v>127857</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>127857</v>
+        <v>134852</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>134852</v>
+        <v>120031</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>120031</v>
+        <v>135825</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>135825</v>
+        <v>135348</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>135348</v>
+        <v>97383</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>97383</v>
+        <v>100124</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>100124</v>
+        <v>150922</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>150922</v>
+        <v>112443</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,86 +5650,86 @@
       <c r="W31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X31" s="16" t="s">
-        <v>58</v>
+      <c r="X31" s="16" t="n">
+        <v>13042</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>13042</v>
+        <v>13195</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>13195</v>
+        <v>11960</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>11960</v>
+        <v>3764</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>3764</v>
+        <v>10082</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>10082</v>
+        <v>11114</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>11114</v>
+        <v>12138</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>12138</v>
+        <v>12011</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>12011</v>
+        <v>12122</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>12122</v>
+        <v>9034</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>9034</v>
+        <v>5877</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>5877</v>
+        <v>8857</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>8857</v>
+        <v>17555</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>17555</v>
+        <v>15775</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>15775</v>
+        <v>9340</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>9340</v>
+        <v>5074</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>5074</v>
+        <v>6061</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>6061</v>
+        <v>8435</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>8435</v>
+        <v>11889</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>11889</v>
+        <v>12114</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>12114</v>
+        <v>8086</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>8086</v>
+        <v>7774</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>7774</v>
-      </c>
-      <c r="AU31" s="16" t="n">
         <v>9173</v>
       </c>
-      <c r="AV31" s="16" t="s">
-        <v>58</v>
+      <c r="AU31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV31" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW31" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX31" s="16" t="n">
-        <v>0</v>
+      <c r="AX31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY31" s="16" t="s">
         <v>58</v>
@@ -5808,97 +5808,97 @@
         <v>0</v>
       </c>
       <c r="X32" s="18" t="n">
-        <v>0</v>
+        <v>144186</v>
       </c>
       <c r="Y32" s="18" t="n">
-        <v>144186</v>
+        <v>134105</v>
       </c>
       <c r="Z32" s="18" t="n">
-        <v>134105</v>
+        <v>96415</v>
       </c>
       <c r="AA32" s="18" t="n">
-        <v>96415</v>
+        <v>88214</v>
       </c>
       <c r="AB32" s="18" t="n">
-        <v>88214</v>
+        <v>93789</v>
       </c>
       <c r="AC32" s="18" t="n">
-        <v>93789</v>
+        <v>134730</v>
       </c>
       <c r="AD32" s="18" t="n">
-        <v>134730</v>
+        <v>108108</v>
       </c>
       <c r="AE32" s="18" t="n">
-        <v>108108</v>
+        <v>143261</v>
       </c>
       <c r="AF32" s="18" t="n">
-        <v>143261</v>
+        <v>154223</v>
       </c>
       <c r="AG32" s="18" t="n">
-        <v>154223</v>
+        <v>94611</v>
       </c>
       <c r="AH32" s="18" t="n">
-        <v>94611</v>
+        <v>72372</v>
       </c>
       <c r="AI32" s="18" t="n">
-        <v>72372</v>
+        <v>148424</v>
       </c>
       <c r="AJ32" s="18" t="n">
-        <v>148424</v>
+        <v>142151</v>
       </c>
       <c r="AK32" s="18" t="n">
-        <v>142151</v>
+        <v>140409</v>
       </c>
       <c r="AL32" s="18" t="n">
-        <v>140409</v>
+        <v>121468</v>
       </c>
       <c r="AM32" s="18" t="n">
-        <v>121468</v>
+        <v>94752</v>
       </c>
       <c r="AN32" s="18" t="n">
-        <v>94752</v>
+        <v>85156</v>
       </c>
       <c r="AO32" s="18" t="n">
-        <v>85156</v>
+        <v>113118</v>
       </c>
       <c r="AP32" s="18" t="n">
-        <v>113118</v>
+        <v>89719</v>
       </c>
       <c r="AQ32" s="18" t="n">
-        <v>89719</v>
+        <v>119676</v>
       </c>
       <c r="AR32" s="18" t="n">
-        <v>119676</v>
+        <v>115101</v>
       </c>
       <c r="AS32" s="18" t="n">
-        <v>115101</v>
+        <v>120632</v>
       </c>
       <c r="AT32" s="18" t="n">
-        <v>120632</v>
+        <v>137030</v>
       </c>
       <c r="AU32" s="18" t="n">
-        <v>137030</v>
+        <v>134852</v>
       </c>
       <c r="AV32" s="18" t="n">
-        <v>134852</v>
+        <v>120031</v>
       </c>
       <c r="AW32" s="18" t="n">
-        <v>120031</v>
+        <v>135825</v>
       </c>
       <c r="AX32" s="18" t="n">
-        <v>135825</v>
+        <v>135348</v>
       </c>
       <c r="AY32" s="18" t="n">
-        <v>135348</v>
+        <v>97383</v>
       </c>
       <c r="AZ32" s="18" t="n">
-        <v>97383</v>
+        <v>100124</v>
       </c>
       <c r="BA32" s="18" t="n">
-        <v>100124</v>
+        <v>150922</v>
       </c>
       <c r="BB32" s="18" t="n">
-        <v>150922</v>
+        <v>112443</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,62 +6059,62 @@
       <c r="AI34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ34" s="13" t="s">
-        <v>58</v>
+      <c r="AJ34" s="13" t="n">
+        <v>13091</v>
       </c>
       <c r="AK34" s="13" t="n">
-        <v>13091</v>
+        <v>4917</v>
       </c>
       <c r="AL34" s="13" t="n">
-        <v>4917</v>
+        <v>13271</v>
       </c>
       <c r="AM34" s="13" t="n">
-        <v>13271</v>
+        <v>5861</v>
       </c>
       <c r="AN34" s="13" t="n">
-        <v>5861</v>
+        <v>6729</v>
       </c>
       <c r="AO34" s="13" t="n">
-        <v>6729</v>
+        <v>19714</v>
       </c>
       <c r="AP34" s="13" t="n">
-        <v>19714</v>
+        <v>16071</v>
       </c>
       <c r="AQ34" s="13" t="n">
-        <v>16071</v>
+        <v>5185</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>5185</v>
+        <v>7655</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>7655</v>
+        <v>17070</v>
       </c>
       <c r="AT34" s="13" t="n">
-        <v>17070</v>
+        <v>16449</v>
       </c>
       <c r="AU34" s="13" t="n">
-        <v>16449</v>
+        <v>18339</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>18339</v>
+        <v>27607</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>27607</v>
+        <v>22747</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>22747</v>
+        <v>10046</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>10046</v>
+        <v>7478</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>7478</v>
+        <v>8521</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>8521</v>
+        <v>13045</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>13045</v>
+        <v>21217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,8 +6182,8 @@
       <c r="W35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X35" s="16" t="s">
-        <v>58</v>
+      <c r="X35" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y35" s="16" t="n">
         <v>0</v>
@@ -6203,8 +6203,8 @@
       <c r="AD35" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE35" s="16" t="n">
-        <v>0</v>
+      <c r="AE35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF35" s="16" t="s">
         <v>58</v>
@@ -6341,8 +6341,8 @@
       <c r="W36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X36" s="13" t="s">
-        <v>58</v>
+      <c r="X36" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y36" s="13" t="n">
         <v>0</v>
@@ -6362,8 +6362,8 @@
       <c r="AD36" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE36" s="13" t="n">
-        <v>0</v>
+      <c r="AE36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF36" s="13" t="s">
         <v>58</v>
@@ -6500,44 +6500,44 @@
       <c r="W37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X37" s="16" t="s">
-        <v>58</v>
+      <c r="X37" s="16" t="n">
+        <v>24924</v>
       </c>
       <c r="Y37" s="16" t="n">
-        <v>24924</v>
+        <v>18877</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>18877</v>
+        <v>53638</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>53638</v>
+        <v>32853</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>32853</v>
+        <v>27396</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>27396</v>
+        <v>35335</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>35335</v>
+        <v>45928</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>45928</v>
-      </c>
-      <c r="AF37" s="16" t="n">
         <v>21544</v>
       </c>
-      <c r="AG37" s="16" t="s">
-        <v>58</v>
+      <c r="AF37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="16" t="n">
+        <v>21711</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>21711</v>
+        <v>23938</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>23938</v>
-      </c>
-      <c r="AJ37" s="16" t="n">
         <v>20628</v>
+      </c>
+      <c r="AJ37" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="16" t="s">
         <v>58</v>
@@ -6658,97 +6658,97 @@
         <v>0</v>
       </c>
       <c r="X38" s="18" t="n">
-        <v>0</v>
+        <v>24924</v>
       </c>
       <c r="Y38" s="18" t="n">
-        <v>24924</v>
+        <v>18877</v>
       </c>
       <c r="Z38" s="18" t="n">
-        <v>18877</v>
+        <v>53638</v>
       </c>
       <c r="AA38" s="18" t="n">
-        <v>53638</v>
+        <v>32853</v>
       </c>
       <c r="AB38" s="18" t="n">
-        <v>32853</v>
+        <v>27396</v>
       </c>
       <c r="AC38" s="18" t="n">
-        <v>27396</v>
+        <v>35335</v>
       </c>
       <c r="AD38" s="18" t="n">
-        <v>35335</v>
+        <v>45928</v>
       </c>
       <c r="AE38" s="18" t="n">
-        <v>45928</v>
+        <v>21544</v>
       </c>
       <c r="AF38" s="18" t="n">
-        <v>21544</v>
+        <v>34453</v>
       </c>
       <c r="AG38" s="18" t="n">
-        <v>34453</v>
+        <v>21711</v>
       </c>
       <c r="AH38" s="18" t="n">
-        <v>21711</v>
+        <v>23938</v>
       </c>
       <c r="AI38" s="18" t="n">
-        <v>23938</v>
+        <v>20628</v>
       </c>
       <c r="AJ38" s="18" t="n">
-        <v>20628</v>
+        <v>13091</v>
       </c>
       <c r="AK38" s="18" t="n">
-        <v>13091</v>
+        <v>4917</v>
       </c>
       <c r="AL38" s="18" t="n">
-        <v>4917</v>
+        <v>13271</v>
       </c>
       <c r="AM38" s="18" t="n">
-        <v>13271</v>
+        <v>5861</v>
       </c>
       <c r="AN38" s="18" t="n">
-        <v>5861</v>
+        <v>6729</v>
       </c>
       <c r="AO38" s="18" t="n">
-        <v>6729</v>
+        <v>19714</v>
       </c>
       <c r="AP38" s="18" t="n">
-        <v>19714</v>
+        <v>16071</v>
       </c>
       <c r="AQ38" s="18" t="n">
-        <v>16071</v>
+        <v>5185</v>
       </c>
       <c r="AR38" s="18" t="n">
-        <v>5185</v>
+        <v>7655</v>
       </c>
       <c r="AS38" s="18" t="n">
-        <v>7655</v>
+        <v>17070</v>
       </c>
       <c r="AT38" s="18" t="n">
-        <v>17070</v>
+        <v>16449</v>
       </c>
       <c r="AU38" s="18" t="n">
-        <v>16449</v>
+        <v>18339</v>
       </c>
       <c r="AV38" s="18" t="n">
-        <v>18339</v>
+        <v>27607</v>
       </c>
       <c r="AW38" s="18" t="n">
-        <v>27607</v>
+        <v>22747</v>
       </c>
       <c r="AX38" s="18" t="n">
-        <v>22747</v>
+        <v>10046</v>
       </c>
       <c r="AY38" s="18" t="n">
-        <v>10046</v>
+        <v>7478</v>
       </c>
       <c r="AZ38" s="18" t="n">
-        <v>7478</v>
+        <v>8521</v>
       </c>
       <c r="BA38" s="18" t="n">
-        <v>8521</v>
+        <v>13045</v>
       </c>
       <c r="BB38" s="18" t="n">
-        <v>13045</v>
+        <v>21217</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,10 +6784,10 @@
       <c r="AC39" s="20"/>
       <c r="AD39" s="20"/>
       <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20" t="n">
+      <c r="AF39" s="20" t="n">
         <v>34453</v>
       </c>
+      <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
       <c r="AI39" s="20"/>
       <c r="AJ39" s="20"/>
@@ -6873,8 +6873,8 @@
       <c r="W40" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X40" s="18" t="s">
-        <v>58</v>
+      <c r="X40" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="Y40" s="18" t="n">
         <v>0</v>
@@ -6897,10 +6897,10 @@
       <c r="AE40" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AF40" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="AH40" s="18" t="n">
         <v>0</v>
       </c>
@@ -6998,10 +6998,10 @@
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
       <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="20"/>
       <c r="AH41" s="20"/>
       <c r="AI41" s="20"/>
       <c r="AJ41" s="20"/>
@@ -7087,8 +7087,8 @@
       <c r="W42" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="18" t="s">
-        <v>58</v>
+      <c r="X42" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="Y42" s="18" t="n">
         <v>0</v>
@@ -7111,10 +7111,10 @@
       <c r="AE42" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AF42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="AH42" s="18" t="n">
         <v>0</v>
       </c>
@@ -7243,97 +7243,97 @@
         <v>0</v>
       </c>
       <c r="X43" s="22" t="n">
-        <v>0</v>
+        <v>169110</v>
       </c>
       <c r="Y43" s="22" t="n">
-        <v>169110</v>
+        <v>152982</v>
       </c>
       <c r="Z43" s="22" t="n">
-        <v>152982</v>
+        <v>150053</v>
       </c>
       <c r="AA43" s="22" t="n">
-        <v>150053</v>
+        <v>121067</v>
       </c>
       <c r="AB43" s="22" t="n">
-        <v>121067</v>
+        <v>121185</v>
       </c>
       <c r="AC43" s="22" t="n">
-        <v>121185</v>
+        <v>170065</v>
       </c>
       <c r="AD43" s="22" t="n">
-        <v>170065</v>
+        <v>154036</v>
       </c>
       <c r="AE43" s="22" t="n">
-        <v>154036</v>
+        <v>164805</v>
       </c>
       <c r="AF43" s="22" t="n">
-        <v>164805</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="22" t="n">
-        <v>0</v>
+        <v>116322</v>
       </c>
       <c r="AH43" s="22" t="n">
-        <v>116322</v>
+        <v>96310</v>
       </c>
       <c r="AI43" s="22" t="n">
-        <v>96310</v>
+        <v>169052</v>
       </c>
       <c r="AJ43" s="22" t="n">
-        <v>169052</v>
+        <v>155242</v>
       </c>
       <c r="AK43" s="22" t="n">
-        <v>155242</v>
+        <v>145326</v>
       </c>
       <c r="AL43" s="22" t="n">
-        <v>145326</v>
+        <v>134739</v>
       </c>
       <c r="AM43" s="22" t="n">
-        <v>134739</v>
+        <v>100613</v>
       </c>
       <c r="AN43" s="22" t="n">
-        <v>100613</v>
+        <v>91885</v>
       </c>
       <c r="AO43" s="22" t="n">
-        <v>91885</v>
+        <v>132832</v>
       </c>
       <c r="AP43" s="22" t="n">
-        <v>132832</v>
+        <v>105790</v>
       </c>
       <c r="AQ43" s="22" t="n">
-        <v>105790</v>
+        <v>124861</v>
       </c>
       <c r="AR43" s="22" t="n">
-        <v>124861</v>
+        <v>122756</v>
       </c>
       <c r="AS43" s="22" t="n">
-        <v>122756</v>
+        <v>137702</v>
       </c>
       <c r="AT43" s="22" t="n">
-        <v>137702</v>
+        <v>153479</v>
       </c>
       <c r="AU43" s="22" t="n">
-        <v>153479</v>
+        <v>153191</v>
       </c>
       <c r="AV43" s="22" t="n">
-        <v>153191</v>
+        <v>147638</v>
       </c>
       <c r="AW43" s="22" t="n">
-        <v>147638</v>
+        <v>158572</v>
       </c>
       <c r="AX43" s="22" t="n">
-        <v>158572</v>
+        <v>145394</v>
       </c>
       <c r="AY43" s="22" t="n">
-        <v>145394</v>
+        <v>104861</v>
       </c>
       <c r="AZ43" s="22" t="n">
-        <v>104861</v>
+        <v>108645</v>
       </c>
       <c r="BA43" s="22" t="n">
-        <v>108645</v>
+        <v>163967</v>
       </c>
       <c r="BB43" s="22" t="n">
-        <v>163967</v>
+        <v>133660</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,98 +7894,98 @@
       <c r="W51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="X51" s="13" t="n">
+        <v>342153</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>342153</v>
+        <v>327434</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>327434</v>
+        <v>217430</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>217430</v>
+        <v>222052</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>222052</v>
+        <v>221545</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>221545</v>
+        <v>338741</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>338741</v>
+        <v>269759</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>269759</v>
+        <v>491223</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>491223</v>
+        <v>546159</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>546159</v>
+        <v>326604</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>326604</v>
+        <v>317905</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>317905</v>
+        <v>724153</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>724153</v>
+        <v>534381</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>534381</v>
+        <v>534944</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>534944</v>
+        <v>507724</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>507724</v>
+        <v>395490</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>395490</v>
+        <v>365465</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>365465</v>
+        <v>534970</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>534970</v>
+        <v>404223</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>404223</v>
+        <v>557009</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>557009</v>
+        <v>571288</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>571288</v>
+        <v>592945</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>592945</v>
+        <v>654274</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>654274</v>
+        <v>681464</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>681464</v>
+        <v>578702</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>578702</v>
+        <v>630371</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>630371</v>
+        <v>702100</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>702100</v>
+        <v>523843</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>523843</v>
+        <v>526594</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>526594</v>
+        <v>822426</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>822426</v>
+        <v>655820</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,86 +8053,86 @@
       <c r="W52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X52" s="16" t="s">
-        <v>58</v>
+      <c r="X52" s="16" t="n">
+        <v>19303</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>19303</v>
+        <v>19838</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>19838</v>
+        <v>21275</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>21275</v>
+        <v>6030</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>6030</v>
+        <v>18180</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>18180</v>
+        <v>20242</v>
       </c>
       <c r="AD52" s="16" t="n">
-        <v>20242</v>
+        <v>23916</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>23916</v>
+        <v>23993</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>23993</v>
+        <v>30757</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>30757</v>
+        <v>21122</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>21122</v>
+        <v>13493</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>13493</v>
+        <v>28991</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>28991</v>
+        <v>52812</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>52812</v>
+        <v>49411</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>49411</v>
+        <v>27599</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>27599</v>
+        <v>14437</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>14437</v>
+        <v>14261</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>14261</v>
+        <v>33617</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>33617</v>
+        <v>40070</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>40070</v>
+        <v>49142</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>49142</v>
+        <v>31194</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>31194</v>
+        <v>28831</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>28831</v>
-      </c>
-      <c r="AU52" s="16" t="n">
         <v>37063</v>
       </c>
-      <c r="AV52" s="16" t="s">
-        <v>58</v>
+      <c r="AU52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV52" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW52" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX52" s="16" t="n">
-        <v>0</v>
+      <c r="AX52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY52" s="16" t="s">
         <v>58</v>
@@ -8211,97 +8211,97 @@
         <v>0</v>
       </c>
       <c r="X53" s="18" t="n">
-        <v>0</v>
+        <v>361456</v>
       </c>
       <c r="Y53" s="18" t="n">
-        <v>361456</v>
+        <v>347272</v>
       </c>
       <c r="Z53" s="18" t="n">
-        <v>347272</v>
+        <v>238705</v>
       </c>
       <c r="AA53" s="18" t="n">
-        <v>238705</v>
+        <v>228082</v>
       </c>
       <c r="AB53" s="18" t="n">
-        <v>228082</v>
+        <v>239725</v>
       </c>
       <c r="AC53" s="18" t="n">
-        <v>239725</v>
+        <v>358983</v>
       </c>
       <c r="AD53" s="18" t="n">
-        <v>358983</v>
+        <v>293675</v>
       </c>
       <c r="AE53" s="18" t="n">
-        <v>293675</v>
+        <v>515216</v>
       </c>
       <c r="AF53" s="18" t="n">
-        <v>515216</v>
+        <v>576916</v>
       </c>
       <c r="AG53" s="18" t="n">
-        <v>576916</v>
+        <v>347726</v>
       </c>
       <c r="AH53" s="18" t="n">
-        <v>347726</v>
+        <v>331398</v>
       </c>
       <c r="AI53" s="18" t="n">
-        <v>331398</v>
+        <v>753144</v>
       </c>
       <c r="AJ53" s="18" t="n">
-        <v>753144</v>
+        <v>587193</v>
       </c>
       <c r="AK53" s="18" t="n">
-        <v>587193</v>
+        <v>584355</v>
       </c>
       <c r="AL53" s="18" t="n">
-        <v>584355</v>
+        <v>535323</v>
       </c>
       <c r="AM53" s="18" t="n">
-        <v>535323</v>
+        <v>409927</v>
       </c>
       <c r="AN53" s="18" t="n">
-        <v>409927</v>
+        <v>379726</v>
       </c>
       <c r="AO53" s="18" t="n">
-        <v>379726</v>
+        <v>568587</v>
       </c>
       <c r="AP53" s="18" t="n">
-        <v>568587</v>
+        <v>444293</v>
       </c>
       <c r="AQ53" s="18" t="n">
-        <v>444293</v>
+        <v>606151</v>
       </c>
       <c r="AR53" s="18" t="n">
-        <v>606151</v>
+        <v>602482</v>
       </c>
       <c r="AS53" s="18" t="n">
-        <v>602482</v>
+        <v>621776</v>
       </c>
       <c r="AT53" s="18" t="n">
-        <v>621776</v>
+        <v>691337</v>
       </c>
       <c r="AU53" s="18" t="n">
-        <v>691337</v>
+        <v>681464</v>
       </c>
       <c r="AV53" s="18" t="n">
-        <v>681464</v>
+        <v>578702</v>
       </c>
       <c r="AW53" s="18" t="n">
-        <v>578702</v>
+        <v>630371</v>
       </c>
       <c r="AX53" s="18" t="n">
-        <v>630371</v>
+        <v>702100</v>
       </c>
       <c r="AY53" s="18" t="n">
-        <v>702100</v>
+        <v>523843</v>
       </c>
       <c r="AZ53" s="18" t="n">
-        <v>523843</v>
+        <v>526594</v>
       </c>
       <c r="BA53" s="18" t="n">
-        <v>526594</v>
+        <v>822426</v>
       </c>
       <c r="BB53" s="18" t="n">
-        <v>822426</v>
+        <v>655820</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8462,62 +8462,62 @@
       <c r="AI55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ55" s="13" t="s">
-        <v>58</v>
+      <c r="AJ55" s="13" t="n">
+        <v>79565</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>79565</v>
+        <v>28589</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>28589</v>
+        <v>77617</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>77617</v>
+        <v>39225</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>39225</v>
+        <v>34058</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>34058</v>
+        <v>100476</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>100476</v>
+        <v>90343</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>90343</v>
+        <v>29208</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>29208</v>
+        <v>41328</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>41328</v>
+        <v>106887</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>106887</v>
+        <v>103874</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>103874</v>
+        <v>117309</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>117309</v>
+        <v>182944</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>182944</v>
+        <v>142244</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>142244</v>
+        <v>61114</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>61114</v>
+        <v>45656</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>45656</v>
+        <v>48368</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>48368</v>
+        <v>95537</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>95537</v>
+        <v>156679</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8585,8 +8585,8 @@
       <c r="W56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X56" s="16" t="s">
-        <v>58</v>
+      <c r="X56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y56" s="16" t="n">
         <v>0</v>
@@ -8621,8 +8621,8 @@
       <c r="AI56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ56" s="16" t="n">
-        <v>0</v>
+      <c r="AJ56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK56" s="16" t="s">
         <v>58</v>
@@ -8744,8 +8744,8 @@
       <c r="W57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X57" s="13" t="s">
-        <v>58</v>
+      <c r="X57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y57" s="13" t="n">
         <v>0</v>
@@ -8780,8 +8780,8 @@
       <c r="AI57" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ57" s="13" t="n">
-        <v>0</v>
+      <c r="AJ57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK57" s="13" t="s">
         <v>58</v>
@@ -8903,44 +8903,44 @@
       <c r="W58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X58" s="16" t="s">
-        <v>58</v>
+      <c r="X58" s="16" t="n">
+        <v>78788</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>78788</v>
+        <v>56503</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>56503</v>
+        <v>136759</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>136759</v>
+        <v>91590</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>91590</v>
+        <v>84827</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>84827</v>
+        <v>147508</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>147508</v>
+        <v>193732</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>193732</v>
+        <v>98918</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>98918</v>
+        <v>160643</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>160643</v>
+        <v>101696</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>101696</v>
+        <v>123442</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>123442</v>
-      </c>
-      <c r="AJ58" s="16" t="n">
         <v>138250</v>
+      </c>
+      <c r="AJ58" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK58" s="16" t="s">
         <v>58</v>
@@ -9061,97 +9061,97 @@
         <v>0</v>
       </c>
       <c r="X59" s="18" t="n">
-        <v>0</v>
+        <v>78788</v>
       </c>
       <c r="Y59" s="18" t="n">
-        <v>78788</v>
+        <v>56503</v>
       </c>
       <c r="Z59" s="18" t="n">
-        <v>56503</v>
+        <v>136759</v>
       </c>
       <c r="AA59" s="18" t="n">
-        <v>136759</v>
+        <v>91590</v>
       </c>
       <c r="AB59" s="18" t="n">
-        <v>91590</v>
+        <v>84827</v>
       </c>
       <c r="AC59" s="18" t="n">
-        <v>84827</v>
+        <v>147508</v>
       </c>
       <c r="AD59" s="18" t="n">
-        <v>147508</v>
+        <v>193732</v>
       </c>
       <c r="AE59" s="18" t="n">
-        <v>193732</v>
+        <v>98918</v>
       </c>
       <c r="AF59" s="18" t="n">
-        <v>98918</v>
+        <v>160643</v>
       </c>
       <c r="AG59" s="18" t="n">
-        <v>160643</v>
+        <v>101696</v>
       </c>
       <c r="AH59" s="18" t="n">
-        <v>101696</v>
+        <v>123442</v>
       </c>
       <c r="AI59" s="18" t="n">
-        <v>123442</v>
+        <v>138250</v>
       </c>
       <c r="AJ59" s="18" t="n">
-        <v>138250</v>
+        <v>79565</v>
       </c>
       <c r="AK59" s="18" t="n">
-        <v>79565</v>
+        <v>28589</v>
       </c>
       <c r="AL59" s="18" t="n">
-        <v>28589</v>
+        <v>77617</v>
       </c>
       <c r="AM59" s="18" t="n">
-        <v>77617</v>
+        <v>39225</v>
       </c>
       <c r="AN59" s="18" t="n">
-        <v>39225</v>
+        <v>34058</v>
       </c>
       <c r="AO59" s="18" t="n">
-        <v>34058</v>
+        <v>100476</v>
       </c>
       <c r="AP59" s="18" t="n">
-        <v>100476</v>
+        <v>90343</v>
       </c>
       <c r="AQ59" s="18" t="n">
-        <v>90343</v>
+        <v>29208</v>
       </c>
       <c r="AR59" s="18" t="n">
-        <v>29208</v>
+        <v>41328</v>
       </c>
       <c r="AS59" s="18" t="n">
-        <v>41328</v>
+        <v>106887</v>
       </c>
       <c r="AT59" s="18" t="n">
-        <v>106887</v>
+        <v>103874</v>
       </c>
       <c r="AU59" s="18" t="n">
-        <v>103874</v>
+        <v>117309</v>
       </c>
       <c r="AV59" s="18" t="n">
-        <v>117309</v>
+        <v>182944</v>
       </c>
       <c r="AW59" s="18" t="n">
-        <v>182944</v>
+        <v>142244</v>
       </c>
       <c r="AX59" s="18" t="n">
-        <v>142244</v>
+        <v>61114</v>
       </c>
       <c r="AY59" s="18" t="n">
-        <v>61114</v>
+        <v>45656</v>
       </c>
       <c r="AZ59" s="18" t="n">
-        <v>45656</v>
+        <v>48368</v>
       </c>
       <c r="BA59" s="18" t="n">
-        <v>48368</v>
+        <v>95537</v>
       </c>
       <c r="BB59" s="18" t="n">
-        <v>95537</v>
+        <v>156679</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9276,8 +9276,8 @@
       <c r="W61" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X61" s="18" t="s">
-        <v>58</v>
+      <c r="X61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y61" s="23" t="n">
         <v>0</v>
@@ -9492,8 +9492,8 @@
       <c r="W63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="18" t="s">
-        <v>58</v>
+      <c r="X63" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y63" s="23" t="n">
         <v>0</v>
@@ -9708,8 +9708,8 @@
       <c r="W65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="13" t="s">
-        <v>58</v>
+      <c r="X65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y65" s="13" t="n">
         <v>0</v>
@@ -9866,97 +9866,97 @@
         <v>0</v>
       </c>
       <c r="X66" s="22" t="n">
-        <v>0</v>
+        <v>440244</v>
       </c>
       <c r="Y66" s="22" t="n">
-        <v>440244</v>
+        <v>403775</v>
       </c>
       <c r="Z66" s="22" t="n">
-        <v>403775</v>
+        <v>375464</v>
       </c>
       <c r="AA66" s="22" t="n">
-        <v>375464</v>
+        <v>319672</v>
       </c>
       <c r="AB66" s="22" t="n">
-        <v>319672</v>
+        <v>324552</v>
       </c>
       <c r="AC66" s="22" t="n">
-        <v>324552</v>
+        <v>506491</v>
       </c>
       <c r="AD66" s="22" t="n">
-        <v>506491</v>
+        <v>487407</v>
       </c>
       <c r="AE66" s="22" t="n">
-        <v>487407</v>
+        <v>614134</v>
       </c>
       <c r="AF66" s="22" t="n">
-        <v>614134</v>
+        <v>737559</v>
       </c>
       <c r="AG66" s="22" t="n">
-        <v>737559</v>
+        <v>449422</v>
       </c>
       <c r="AH66" s="22" t="n">
-        <v>449422</v>
+        <v>454840</v>
       </c>
       <c r="AI66" s="22" t="n">
-        <v>454840</v>
+        <v>891394</v>
       </c>
       <c r="AJ66" s="22" t="n">
-        <v>891394</v>
+        <v>666758</v>
       </c>
       <c r="AK66" s="22" t="n">
-        <v>666758</v>
+        <v>612944</v>
       </c>
       <c r="AL66" s="22" t="n">
-        <v>612944</v>
+        <v>612940</v>
       </c>
       <c r="AM66" s="22" t="n">
-        <v>612940</v>
+        <v>449152</v>
       </c>
       <c r="AN66" s="22" t="n">
-        <v>449152</v>
+        <v>413784</v>
       </c>
       <c r="AO66" s="22" t="n">
-        <v>413784</v>
+        <v>669063</v>
       </c>
       <c r="AP66" s="22" t="n">
-        <v>669063</v>
+        <v>534636</v>
       </c>
       <c r="AQ66" s="22" t="n">
-        <v>534636</v>
+        <v>635359</v>
       </c>
       <c r="AR66" s="22" t="n">
-        <v>635359</v>
+        <v>643810</v>
       </c>
       <c r="AS66" s="22" t="n">
-        <v>643810</v>
+        <v>728663</v>
       </c>
       <c r="AT66" s="22" t="n">
-        <v>728663</v>
+        <v>795211</v>
       </c>
       <c r="AU66" s="22" t="n">
-        <v>795211</v>
+        <v>798773</v>
       </c>
       <c r="AV66" s="22" t="n">
-        <v>798773</v>
+        <v>761646</v>
       </c>
       <c r="AW66" s="22" t="n">
-        <v>761646</v>
+        <v>772615</v>
       </c>
       <c r="AX66" s="22" t="n">
-        <v>772615</v>
+        <v>763214</v>
       </c>
       <c r="AY66" s="22" t="n">
-        <v>763214</v>
+        <v>569499</v>
       </c>
       <c r="AZ66" s="22" t="n">
-        <v>569499</v>
+        <v>574962</v>
       </c>
       <c r="BA66" s="22" t="n">
-        <v>574962</v>
+        <v>917963</v>
       </c>
       <c r="BB66" s="22" t="n">
-        <v>917963</v>
+        <v>812499</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10458,98 +10458,98 @@
       <c r="W73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X73" s="13" t="s">
-        <v>58</v>
+      <c r="X73" s="13" t="n">
+        <v>2608987</v>
       </c>
       <c r="Y73" s="13" t="n">
-        <v>2608987</v>
+        <v>2708080</v>
       </c>
       <c r="Z73" s="13" t="n">
-        <v>2708080</v>
+        <v>2574507</v>
       </c>
       <c r="AA73" s="13" t="n">
-        <v>2574507</v>
+        <v>2629390</v>
       </c>
       <c r="AB73" s="13" t="n">
-        <v>2629390</v>
+        <v>2646672</v>
       </c>
       <c r="AC73" s="13" t="n">
-        <v>2646672</v>
+        <v>2740268</v>
       </c>
       <c r="AD73" s="13" t="n">
-        <v>2740268</v>
+        <v>2810868</v>
       </c>
       <c r="AE73" s="13" t="n">
-        <v>2810868</v>
+        <v>3742651</v>
       </c>
       <c r="AF73" s="13" t="n">
-        <v>3742651</v>
+        <v>3843456</v>
       </c>
       <c r="AG73" s="13" t="n">
-        <v>3843456</v>
+        <v>3816493</v>
       </c>
       <c r="AH73" s="13" t="n">
-        <v>3816493</v>
+        <v>4780886</v>
       </c>
       <c r="AI73" s="13" t="n">
-        <v>4780886</v>
+        <v>5188569</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>5188569</v>
+        <v>4288910</v>
       </c>
       <c r="AK73" s="13" t="n">
-        <v>4288910</v>
+        <v>4292119</v>
       </c>
       <c r="AL73" s="13" t="n">
-        <v>4292119</v>
+        <v>4528075</v>
       </c>
       <c r="AM73" s="13" t="n">
-        <v>4528075</v>
+        <v>4410112</v>
       </c>
       <c r="AN73" s="13" t="n">
-        <v>4410112</v>
+        <v>4620583</v>
       </c>
       <c r="AO73" s="13" t="n">
-        <v>4620583</v>
+        <v>5110381</v>
       </c>
       <c r="AP73" s="13" t="n">
-        <v>5110381</v>
+        <v>5193666</v>
       </c>
       <c r="AQ73" s="13" t="n">
-        <v>5193666</v>
+        <v>5178492</v>
       </c>
       <c r="AR73" s="13" t="n">
-        <v>5178492</v>
+        <v>5338392</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>5338392</v>
+        <v>5253903</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>5253903</v>
+        <v>5117233</v>
       </c>
       <c r="AU73" s="13" t="n">
-        <v>5117233</v>
+        <v>5053422</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>5053422</v>
+        <v>4821271</v>
       </c>
       <c r="AW73" s="13" t="n">
-        <v>4821271</v>
+        <v>4641053</v>
       </c>
       <c r="AX73" s="13" t="n">
-        <v>4641053</v>
+        <v>5187369</v>
       </c>
       <c r="AY73" s="13" t="n">
-        <v>5187369</v>
+        <v>5379204</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>5379204</v>
+        <v>5259418</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>5259418</v>
+        <v>5449345</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>5449345</v>
+        <v>5832466</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10617,77 +10617,77 @@
       <c r="W74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X74" s="16" t="s">
-        <v>58</v>
+      <c r="X74" s="16" t="n">
+        <v>1480064</v>
       </c>
       <c r="Y74" s="16" t="n">
-        <v>1480064</v>
+        <v>1503448</v>
       </c>
       <c r="Z74" s="16" t="n">
-        <v>1503448</v>
+        <v>1778846</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>1778846</v>
+        <v>1602019</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>1602019</v>
+        <v>1803214</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>1803214</v>
+        <v>1821306</v>
       </c>
       <c r="AD74" s="16" t="n">
-        <v>1821306</v>
+        <v>1970341</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>1970341</v>
+        <v>1997586</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>1997586</v>
+        <v>2537288</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>2537288</v>
+        <v>2338056</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>2338056</v>
+        <v>2295899</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>2295899</v>
+        <v>3273230</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>3273230</v>
+        <v>3008374</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>3008374</v>
+        <v>3132235</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>3132235</v>
+        <v>2954925</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>2954925</v>
+        <v>2845290</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>2845290</v>
+        <v>2352912</v>
       </c>
       <c r="AO74" s="16" t="n">
-        <v>2352912</v>
+        <v>3985418</v>
       </c>
       <c r="AP74" s="16" t="n">
-        <v>3985418</v>
+        <v>3370342</v>
       </c>
       <c r="AQ74" s="16" t="n">
-        <v>3370342</v>
+        <v>4056629</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>4056629</v>
+        <v>3857779</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>3857779</v>
+        <v>3708644</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>3708644</v>
-      </c>
-      <c r="AU74" s="16" t="n">
         <v>4040445</v>
+      </c>
+      <c r="AU74" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AV74" s="16" t="s">
         <v>58</v>
@@ -10869,62 +10869,62 @@
       <c r="AI76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ76" s="13" t="s">
-        <v>58</v>
+      <c r="AJ76" s="13" t="n">
+        <v>6077840</v>
       </c>
       <c r="AK76" s="13" t="n">
-        <v>6077840</v>
+        <v>5814318</v>
       </c>
       <c r="AL76" s="13" t="n">
-        <v>5814318</v>
+        <v>5848617</v>
       </c>
       <c r="AM76" s="13" t="n">
-        <v>5848617</v>
+        <v>6692544</v>
       </c>
       <c r="AN76" s="13" t="n">
-        <v>6692544</v>
+        <v>5061376</v>
       </c>
       <c r="AO76" s="13" t="n">
-        <v>5061376</v>
+        <v>5096683</v>
       </c>
       <c r="AP76" s="13" t="n">
-        <v>5096683</v>
+        <v>5621492</v>
       </c>
       <c r="AQ76" s="13" t="n">
-        <v>5621492</v>
+        <v>5633173</v>
       </c>
       <c r="AR76" s="13" t="n">
-        <v>5633173</v>
+        <v>5398824</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>5398824</v>
+        <v>6261687</v>
       </c>
       <c r="AT76" s="13" t="n">
-        <v>6261687</v>
+        <v>6314913</v>
       </c>
       <c r="AU76" s="13" t="n">
-        <v>6314913</v>
+        <v>6396696</v>
       </c>
       <c r="AV76" s="13" t="n">
-        <v>6396696</v>
+        <v>6626725</v>
       </c>
       <c r="AW76" s="13" t="n">
-        <v>6626725</v>
+        <v>6253308</v>
       </c>
       <c r="AX76" s="13" t="n">
-        <v>6253308</v>
+        <v>6083416</v>
       </c>
       <c r="AY76" s="13" t="n">
-        <v>6083416</v>
+        <v>6105376</v>
       </c>
       <c r="AZ76" s="13" t="n">
-        <v>6105376</v>
+        <v>5676329</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>5676329</v>
+        <v>7323649</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>7323649</v>
+        <v>7384597</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10992,44 +10992,44 @@
       <c r="W77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X77" s="16" t="s">
-        <v>58</v>
+      <c r="X77" s="16" t="n">
+        <v>3161130</v>
       </c>
       <c r="Y77" s="16" t="n">
-        <v>3161130</v>
+        <v>2993219</v>
       </c>
       <c r="Z77" s="16" t="n">
-        <v>2993219</v>
+        <v>2549666</v>
       </c>
       <c r="AA77" s="16" t="n">
-        <v>2549666</v>
+        <v>2787873</v>
       </c>
       <c r="AB77" s="16" t="n">
-        <v>2787873</v>
+        <v>3096328</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>3096328</v>
+        <v>4174558</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>4174558</v>
+        <v>4218168</v>
       </c>
       <c r="AE77" s="16" t="n">
-        <v>4218168</v>
+        <v>4591441</v>
       </c>
       <c r="AF77" s="16" t="n">
-        <v>4591441</v>
+        <v>4662671</v>
       </c>
       <c r="AG77" s="16" t="n">
-        <v>4662671</v>
+        <v>4684077</v>
       </c>
       <c r="AH77" s="16" t="n">
-        <v>4684077</v>
+        <v>5156738</v>
       </c>
       <c r="AI77" s="16" t="n">
-        <v>5156738</v>
-      </c>
-      <c r="AJ77" s="16" t="n">
         <v>6702055</v>
+      </c>
+      <c r="AJ77" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK77" s="16" t="s">
         <v>58</v>
